--- a/MODELO FLUJO/resultados_embalse.xlsx
+++ b/MODELO FLUJO/resultados_embalse.xlsx
@@ -1320,7 +1320,7 @@
         <v>28.999262</v>
       </c>
       <c r="U7" t="n">
-        <v>25.932062</v>
+        <v>25.93206199999999</v>
       </c>
       <c r="V7" t="n">
         <v>3.0672</v>
@@ -1368,7 +1368,7 @@
         <v>3.0672</v>
       </c>
       <c r="AK7" t="n">
-        <v>28.999262</v>
+        <v>28.99926199999999</v>
       </c>
       <c r="AL7" t="n">
         <v>49.99999999999999</v>
@@ -1447,7 +1447,7 @@
         <v>69.13801800000002</v>
       </c>
       <c r="V8" t="n">
-        <v>8.18275</v>
+        <v>8.182750000000002</v>
       </c>
       <c r="W8" t="n">
         <v>223.37856</v>
@@ -1514,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2.275000000000239</v>
+        <v>2.275000000000189</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>90.61722599999993</v>
+        <v>90.61722599999996</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>113.6759900000001</v>
       </c>
       <c r="U9" t="n">
-        <v>124.7073540000001</v>
+        <v>124.707354</v>
       </c>
       <c r="V9" t="n">
         <v>12.0274</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>78.58982599999993</v>
+        <v>78.58982599999996</v>
       </c>
       <c r="AJ9" t="n">
         <v>12.02739999999999</v>
       </c>
       <c r="AK9" t="n">
-        <v>136.7347540000001</v>
+        <v>136.734754</v>
       </c>
       <c r="AL9" t="n">
-        <v>38.65760754772886</v>
+        <v>38.65760754772888</v>
       </c>
       <c r="AM9" t="n">
         <v>49.99999999999997</v>
       </c>
       <c r="AN9" t="n">
-        <v>39.8576805884866</v>
+        <v>39.85768058848661</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>1.624999999999836</v>
+        <v>1.624999999999863</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>69.13801799999999</v>
       </c>
       <c r="S11" t="n">
-        <v>8.182749999999952</v>
+        <v>8.182749999999963</v>
       </c>
       <c r="T11" t="n">
         <v>77.32076799999996</v>
@@ -1819,7 +1819,7 @@
         <v>138.276036</v>
       </c>
       <c r="V11" t="n">
-        <v>16.36549999999995</v>
+        <v>16.36549999999996</v>
       </c>
       <c r="W11" t="n">
         <v>40.618368</v>
@@ -1934,16 +1934,16 @@
         <v>36.62744599999998</v>
       </c>
       <c r="S12" t="n">
-        <v>4.334549999999947</v>
+        <v>4.334549999999953</v>
       </c>
       <c r="T12" t="n">
-        <v>40.9619959999999</v>
+        <v>40.96199599999991</v>
       </c>
       <c r="U12" t="n">
         <v>73.25489199999998</v>
       </c>
       <c r="V12" t="n">
-        <v>8.669099999999947</v>
+        <v>8.669099999999954</v>
       </c>
       <c r="W12" t="n">
         <v>47.595168</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>81.92399199999993</v>
+        <v>81.92399199999994</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>8.233748000000009</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9726999999998724</v>
+        <v>0.9726999999998851</v>
       </c>
       <c r="T13" t="n">
-        <v>9.20644799999986</v>
+        <v>9.20644799999987</v>
       </c>
       <c r="U13" t="n">
         <v>16.46749600000001</v>
       </c>
       <c r="V13" t="n">
-        <v>1.945399999999872</v>
+        <v>1.945399999999885</v>
       </c>
       <c r="W13" t="n">
         <v>112.00032</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.41289599999988</v>
+        <v>18.4128959999999</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>23.65745599999961</v>
+        <v>23.65745599999962</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.38245599999961</v>
+        <v>21.38245599999962</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>23.33245599999961</v>
+        <v>23.33245599999962</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.05745599999961</v>
+        <v>21.05745599999962</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         <v>174.675</v>
       </c>
       <c r="D18" t="n">
-        <v>50.15948359999976</v>
+        <v>50.15948359999975</v>
       </c>
       <c r="E18" t="n">
-        <v>20.4876763999999</v>
+        <v>20.48767639999988</v>
       </c>
       <c r="F18" t="n">
         <v>192.40416</v>
@@ -2757,10 +2757,10 @@
         <v>174.675</v>
       </c>
       <c r="D19" t="n">
-        <v>35.02632279999972</v>
+        <v>35.02632279999975</v>
       </c>
       <c r="E19" t="n">
-        <v>21.83129520000003</v>
+        <v>21.83129520000001</v>
       </c>
       <c r="F19" t="n">
         <v>15.53471999999999</v>
@@ -2781,7 +2781,7 @@
         <v>3.0672</v>
       </c>
       <c r="L19" t="n">
-        <v>28.999262</v>
+        <v>28.99926199999999</v>
       </c>
       <c r="M19" t="n">
         <v>0.3249999999999886</v>
@@ -2790,7 +2790,7 @@
         <v>10.7989012</v>
       </c>
       <c r="O19" t="n">
-        <v>4.410818800000001</v>
+        <v>4.410818800000003</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>10.7989012</v>
       </c>
       <c r="AH19" t="n">
-        <v>4.410818800000001</v>
+        <v>4.410818800000003</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>13.64854520000003</v>
+        <v>13.64854520000002</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2899,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>35.02632279999973</v>
+        <v>35.02632279999982</v>
       </c>
       <c r="K20" t="n">
         <v>8.18275</v>
       </c>
       <c r="L20" t="n">
-        <v>77.32076799999999</v>
+        <v>77.32076800000002</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2923,16 +2923,16 @@
         <v>172.075</v>
       </c>
       <c r="R20" t="n">
-        <v>34.11169520000027</v>
+        <v>34.11169520000018</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.11169520000027</v>
+        <v>34.11169520000018</v>
       </c>
       <c r="U20" t="n">
-        <v>69.138018</v>
+        <v>69.13801799999999</v>
       </c>
       <c r="V20" t="n">
         <v>8.18275</v>
@@ -2974,22 +2974,22 @@
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>34.11169520000026</v>
+        <v>34.11169520000019</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>77.320768</v>
+        <v>77.32076799999999</v>
       </c>
       <c r="AL20" t="n">
-        <v>49.99999999999999</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="AM20" t="n">
         <v>50</v>
       </c>
       <c r="AN20" t="n">
-        <v>49.99999999999999</v>
+        <v>50.00000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3002,13 +3002,13 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>38.26471479999976</v>
+        <v>38.2647147999998</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.621145200000058</v>
+        <v>1.621145200000029</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -3107,13 +3107,13 @@
         <v>113.67599</v>
       </c>
       <c r="AL21" t="n">
-        <v>50</v>
+        <v>50.00000000000002</v>
       </c>
       <c r="AM21" t="n">
         <v>50</v>
       </c>
       <c r="AN21" t="n">
-        <v>50</v>
+        <v>50.00000000000002</v>
       </c>
     </row>
     <row r="22">
@@ -3150,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.621145200000042</v>
+        <v>1.621145200000027</v>
       </c>
       <c r="L22" t="n">
-        <v>37.2858599999998</v>
+        <v>37.28585999999983</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3168,22 +3168,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.66471479999976</v>
+        <v>35.66471479999981</v>
       </c>
       <c r="R22" t="n">
         <v>100.8315815</v>
       </c>
       <c r="S22" t="n">
-        <v>10.31040479999996</v>
+        <v>10.31040479999997</v>
       </c>
       <c r="T22" t="n">
         <v>111.1419863</v>
       </c>
       <c r="U22" t="n">
-        <v>176.3088530000007</v>
+        <v>176.3088530000006</v>
       </c>
       <c r="V22" t="n">
-        <v>11.93154999999955</v>
+        <v>11.9315499999996</v>
       </c>
       <c r="W22" t="n">
         <v>51.077088</v>
@@ -3222,22 +3222,22 @@
         <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>25.35430999999935</v>
+        <v>25.35430999999942</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10.31040480000041</v>
+        <v>10.31040480000038</v>
       </c>
       <c r="AK22" t="n">
         <v>188.2404030000002</v>
       </c>
       <c r="AL22" t="n">
-        <v>12.57260355476987</v>
+        <v>12.5726035547699</v>
       </c>
       <c r="AM22" t="n">
-        <v>50.00000000000189</v>
+        <v>50.0000000000017</v>
       </c>
       <c r="AN22" t="n">
-        <v>16.53282393988846</v>
+        <v>16.53282393988847</v>
       </c>
     </row>
     <row r="23">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.325</v>
+        <v>0.3249999999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0.325</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>18.83574400000015</v>
+        <v>18.83574400000009</v>
       </c>
       <c r="M26" t="n">
         <v>173.7</v>
@@ -3661,7 +3661,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="n">
-        <v>18.83574400000015</v>
+        <v>18.83574400000009</v>
       </c>
       <c r="Q26" t="n">
         <v>172.4</v>
@@ -4202,7 +4202,7 @@
         <v>117.6748</v>
       </c>
       <c r="AE30" t="n">
-        <v>83.54910799999998</v>
+        <v>83.54910799999999</v>
       </c>
       <c r="AF30" t="n">
         <v>34.12569199999999</v>
@@ -4862,7 +4862,7 @@
         <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>57.05544514000015</v>
+        <v>57.05544514000008</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -4907,16 +4907,16 @@
         <v>91.40789114</v>
       </c>
       <c r="R36" t="n">
-        <v>36.62744599999989</v>
+        <v>36.62744599999994</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>36.62744599999989</v>
+        <v>36.62744599999994</v>
       </c>
       <c r="U36" t="n">
-        <v>36.627446</v>
+        <v>36.62744599999999</v>
       </c>
       <c r="V36" t="n">
         <v>4.33455</v>
@@ -4958,22 +4958,22 @@
         <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>36.62744599999989</v>
+        <v>36.62744599999994</v>
       </c>
       <c r="AJ36" t="n">
         <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>40.961996</v>
+        <v>40.96199599999999</v>
       </c>
       <c r="AL36" t="n">
-        <v>49.99999999999984</v>
+        <v>49.99999999999991</v>
       </c>
       <c r="AM36" t="n">
         <v>50</v>
       </c>
       <c r="AN36" t="n">
-        <v>49.99999999999986</v>
+        <v>49.99999999999992</v>
       </c>
     </row>
     <row r="37">
@@ -4986,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>48.49669714000015</v>
+        <v>48.49669714000008</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>54.45544514000014</v>
+        <v>54.45544514000008</v>
       </c>
       <c r="R37" t="n">
         <v>8.233748</v>
@@ -5113,7 +5113,7 @@
         <v>174.675</v>
       </c>
       <c r="D38" t="n">
-        <v>115.4102338494001</v>
+        <v>115.4102338494</v>
       </c>
       <c r="E38" t="n">
         <v>105</v>
@@ -5140,10 +5140,10 @@
         <v>1.809576650600036</v>
       </c>
       <c r="M38" t="n">
-        <v>126.5033028599998</v>
+        <v>126.5033028599999</v>
       </c>
       <c r="N38" t="n">
-        <v>115.4102338494001</v>
+        <v>115.4102338494</v>
       </c>
       <c r="O38" t="n">
         <v>45.32981464000001</v>
@@ -5188,19 +5188,19 @@
         <v>289.052928</v>
       </c>
       <c r="AC38" t="n">
-        <v>126.5033028599998</v>
+        <v>126.5033028599999</v>
       </c>
       <c r="AD38" t="n">
-        <v>162.5496251400001</v>
+        <v>162.54962514</v>
       </c>
       <c r="AE38" t="n">
-        <v>115.4102338494001</v>
+        <v>115.4102338494</v>
       </c>
       <c r="AF38" t="n">
-        <v>47.13939129060002</v>
+        <v>47.13939129060001</v>
       </c>
       <c r="AG38" t="n">
-        <v>115.4102338494001</v>
+        <v>115.4102338494</v>
       </c>
       <c r="AH38" t="n">
         <v>45.32981464000001</v>
@@ -5267,7 +5267,7 @@
         <v>0.325</v>
       </c>
       <c r="N39" t="n">
-        <v>144.5897661505999</v>
+        <v>144.5897661506</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -5324,7 +5324,7 @@
         <v>72.76609240000001</v>
       </c>
       <c r="AG39" t="n">
-        <v>144.5897661505999</v>
+        <v>144.5897661506</v>
       </c>
       <c r="AH39" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>317.097946</v>
       </c>
       <c r="M44" t="n">
-        <v>0.3250000000000171</v>
+        <v>0.3250000000000149</v>
       </c>
       <c r="N44" t="n">
         <v>25.93206199999995</v>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>406.7070745</v>
+        <v>406.7070745000001</v>
       </c>
       <c r="M51" t="n">
         <v>0.3249999999999886</v>
@@ -6758,10 +6758,10 @@
         <v>208.414875805</v>
       </c>
       <c r="O51" t="n">
-        <v>16.37896969499999</v>
+        <v>16.378969695</v>
       </c>
       <c r="P51" t="n">
-        <v>406.7070745</v>
+        <v>406.7070745000001</v>
       </c>
       <c r="Q51" t="n">
         <v>172.4</v>
@@ -6815,7 +6815,7 @@
         <v>208.414875805</v>
       </c>
       <c r="AH51" t="n">
-        <v>16.37896969499999</v>
+        <v>16.378969695</v>
       </c>
       <c r="AI51" t="n">
         <v>0</v>
@@ -7000,7 +7000,7 @@
         <v>207.51884</v>
       </c>
       <c r="M53" t="n">
-        <v>0.325</v>
+        <v>0.3249999999999886</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>11</v>
       </c>
       <c r="C60" t="n">
-        <v>94.21395970000012</v>
+        <v>94.21395970000015</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -7883,16 +7883,16 @@
         <v>128.5664057</v>
       </c>
       <c r="R60" t="n">
-        <v>36.62744599999992</v>
+        <v>36.62744599999989</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>36.62744599999992</v>
+        <v>36.62744599999989</v>
       </c>
       <c r="U60" t="n">
-        <v>36.627446</v>
+        <v>36.62744600000001</v>
       </c>
       <c r="V60" t="n">
         <v>4.33455</v>
@@ -7934,22 +7934,22 @@
         <v>0</v>
       </c>
       <c r="AI60" t="n">
-        <v>36.62744599999992</v>
+        <v>36.62744599999989</v>
       </c>
       <c r="AJ60" t="n">
         <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>40.961996</v>
+        <v>40.96199600000001</v>
       </c>
       <c r="AL60" t="n">
-        <v>49.99999999999989</v>
+        <v>49.99999999999986</v>
       </c>
       <c r="AM60" t="n">
         <v>50</v>
       </c>
       <c r="AN60" t="n">
-        <v>49.99999999999991</v>
+        <v>49.99999999999987</v>
       </c>
     </row>
     <row r="61">
@@ -7962,7 +7962,7 @@
         <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>85.65521170000009</v>
+        <v>85.65521170000015</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>91.61395970000011</v>
+        <v>91.61395970000014</v>
       </c>
       <c r="R61" t="n">
         <v>8.233748000000006</v>
@@ -8016,7 +8016,7 @@
         <v>8.233747999999991</v>
       </c>
       <c r="U61" t="n">
-        <v>8.233748</v>
+        <v>8.233748000000002</v>
       </c>
       <c r="V61" t="n">
         <v>0.9727</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK61" t="n">
-        <v>9.206448</v>
+        <v>9.206448000000002</v>
       </c>
       <c r="AL61" t="n">
         <v>50.00000000000004</v>
@@ -8086,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>85.33021170000009</v>
+        <v>85.33021170000015</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>83.05521170000009</v>
+        <v>83.05521170000014</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>174.675</v>
       </c>
       <c r="D63" t="n">
-        <v>13.84872870700005</v>
+        <v>13.84872870700008</v>
       </c>
       <c r="E63" t="n">
-        <v>73.20757299300003</v>
+        <v>73.20757299300004</v>
       </c>
       <c r="F63" t="n">
         <v>109.17504</v>
@@ -8240,13 +8240,13 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>89.66978829999991</v>
+        <v>89.66978829999985</v>
       </c>
       <c r="N63" t="n">
-        <v>13.84872870700006</v>
+        <v>13.8487287070001</v>
       </c>
       <c r="O63" t="n">
-        <v>5.656522993000025</v>
+        <v>5.65652299300004</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -8288,22 +8288,22 @@
         <v>109.17504</v>
       </c>
       <c r="AC63" t="n">
-        <v>89.66978829999991</v>
+        <v>89.66978829999985</v>
       </c>
       <c r="AD63" t="n">
-        <v>19.50525170000009</v>
+        <v>19.50525170000014</v>
       </c>
       <c r="AE63" t="n">
-        <v>13.84872870700006</v>
+        <v>13.8487287070001</v>
       </c>
       <c r="AF63" t="n">
-        <v>5.656522993000025</v>
+        <v>5.656522993000041</v>
       </c>
       <c r="AG63" t="n">
-        <v>13.84872870700006</v>
+        <v>13.8487287070001</v>
       </c>
       <c r="AH63" t="n">
-        <v>5.656522993000025</v>
+        <v>5.65652299300004</v>
       </c>
       <c r="AI63" t="n">
         <v>0</v>
@@ -8337,7 +8337,7 @@
         <v>174.675</v>
       </c>
       <c r="D64" t="n">
-        <v>226.433196947</v>
+        <v>226.4331969470001</v>
       </c>
       <c r="E64" t="n">
         <v>105</v>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>55.03784875300003</v>
+        <v>55.03784875300005</v>
       </c>
       <c r="M64" t="n">
         <v>0.3250000000000028</v>
@@ -8370,10 +8370,10 @@
         <v>212.58446824</v>
       </c>
       <c r="O64" t="n">
-        <v>31.79242700699997</v>
+        <v>31.79242700699996</v>
       </c>
       <c r="P64" t="n">
-        <v>55.03784875300003</v>
+        <v>55.03784875300005</v>
       </c>
       <c r="Q64" t="n">
         <v>172.4</v>
@@ -8427,7 +8427,7 @@
         <v>212.58446824</v>
       </c>
       <c r="AH64" t="n">
-        <v>31.79242700699997</v>
+        <v>31.79242700699996</v>
       </c>
       <c r="AI64" t="n">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>174.675</v>
       </c>
       <c r="D65" t="n">
-        <v>241.701008547</v>
+        <v>241.7010085470001</v>
       </c>
       <c r="E65" t="n">
         <v>105</v>
@@ -8609,19 +8609,19 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>121.577288547</v>
+        <v>121.5772885470001</v>
       </c>
       <c r="M66" t="n">
         <v>0.3249999999999886</v>
       </c>
       <c r="N66" t="n">
-        <v>18.29899145299997</v>
+        <v>18.29899145299993</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>121.577288547</v>
+        <v>121.5772885470001</v>
       </c>
       <c r="Q66" t="n">
         <v>172.4</v>
@@ -8672,7 +8672,7 @@
         <v>40.5641212</v>
       </c>
       <c r="AG66" t="n">
-        <v>18.29899145299997</v>
+        <v>18.29899145299993</v>
       </c>
       <c r="AH66" t="n">
         <v>0</v>
@@ -8860,7 +8860,7 @@
         <v>108.493786</v>
       </c>
       <c r="M68" t="n">
-        <v>0.3250000000000028</v>
+        <v>0.3249999999999957</v>
       </c>
       <c r="N68" t="n">
         <v>25.932062</v>
@@ -8869,7 +8869,7 @@
         <v>3.0672</v>
       </c>
       <c r="P68" t="n">
-        <v>31.17301799999998</v>
+        <v>31.17301799999999</v>
       </c>
       <c r="Q68" t="n">
         <v>172.4</v>
@@ -8908,16 +8908,16 @@
         <v>60.49727999999999</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.3250000000000028</v>
+        <v>0.3249999999999957</v>
       </c>
       <c r="AD68" t="n">
         <v>60.17227999999999</v>
       </c>
       <c r="AE68" t="n">
-        <v>42.72231879999999</v>
+        <v>42.7223188</v>
       </c>
       <c r="AF68" t="n">
-        <v>17.44996119999999</v>
+        <v>17.4499612</v>
       </c>
       <c r="AG68" t="n">
         <v>25.932062</v>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="AI70" t="n">
-        <v>11.61818949999997</v>
+        <v>11.61818949999996</v>
       </c>
       <c r="AJ70" t="n">
         <v>0</v>
@@ -9202,7 +9202,7 @@
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>92.94379250000006</v>
+        <v>92.94379250000004</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -9247,13 +9247,13 @@
         <v>159.8068105</v>
       </c>
       <c r="R71" t="n">
-        <v>69.13801799999999</v>
+        <v>69.13801800000002</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>69.138018</v>
+        <v>69.13801800000002</v>
       </c>
       <c r="U71" t="n">
         <v>69.13801799999999</v>
@@ -9298,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="AI71" t="n">
-        <v>69.138018</v>
+        <v>69.13801800000002</v>
       </c>
       <c r="AJ71" t="n">
         <v>0</v>
@@ -9307,13 +9307,13 @@
         <v>77.32076799999999</v>
       </c>
       <c r="AL71" t="n">
-        <v>50</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="AM71" t="n">
         <v>50</v>
       </c>
       <c r="AN71" t="n">
-        <v>50</v>
+        <v>50.00000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -9326,7 +9326,7 @@
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>55.99134650000002</v>
+        <v>55.99134650000001</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>90.34379250000005</v>
+        <v>90.34379250000003</v>
       </c>
       <c r="R72" t="n">
         <v>36.62744600000001</v>
@@ -9380,7 +9380,7 @@
         <v>36.62744600000001</v>
       </c>
       <c r="U72" t="n">
-        <v>36.627446</v>
+        <v>36.62744600000001</v>
       </c>
       <c r="V72" t="n">
         <v>4.33455</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="AK72" t="n">
-        <v>40.961996</v>
+        <v>40.96199600000001</v>
       </c>
       <c r="AL72" t="n">
         <v>50.00000000000001</v>
@@ -9450,7 +9450,7 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>47.43259850000001</v>
+        <v>47.4325985</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>53.39134650000002</v>
+        <v>53.39134650000001</v>
       </c>
       <c r="R73" t="n">
         <v>8.233748000000006</v>
@@ -9504,7 +9504,7 @@
         <v>8.233748000000006</v>
       </c>
       <c r="U73" t="n">
-        <v>8.233748</v>
+        <v>8.233747999999999</v>
       </c>
       <c r="V73" t="n">
         <v>0.9727</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="AK73" t="n">
-        <v>9.206448</v>
+        <v>9.206447999999998</v>
       </c>
       <c r="AL73" t="n">
         <v>50.00000000000004</v>
@@ -9574,13 +9574,13 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>47.10759850000001</v>
+        <v>47.1075985</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>59.3683</v>
+        <v>59.36829999999999</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>44.83259850000001</v>
+        <v>44.8325985</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -9701,10 +9701,10 @@
         <v>174.675</v>
       </c>
       <c r="D75" t="n">
-        <v>42.159514935</v>
+        <v>42.15951493499998</v>
       </c>
       <c r="E75" t="n">
-        <v>76.588383565</v>
+        <v>76.58838356499999</v>
       </c>
       <c r="F75" t="n">
         <v>187.272</v>
@@ -9731,7 +9731,7 @@
         <v>127.8924015</v>
       </c>
       <c r="N75" t="n">
-        <v>42.159514935</v>
+        <v>42.15951493499999</v>
       </c>
       <c r="O75" t="n">
         <v>17.220083565</v>
@@ -9779,16 +9779,16 @@
         <v>127.8924015</v>
       </c>
       <c r="AD75" t="n">
-        <v>59.3795985</v>
+        <v>59.37959849999999</v>
       </c>
       <c r="AE75" t="n">
-        <v>42.159514935</v>
+        <v>42.15951493499999</v>
       </c>
       <c r="AF75" t="n">
         <v>17.220083565</v>
       </c>
       <c r="AG75" t="n">
-        <v>42.159514935</v>
+        <v>42.15951493499999</v>
       </c>
       <c r="AH75" t="n">
         <v>17.220083565</v>
@@ -9858,7 +9858,7 @@
         <v>116.75961928</v>
       </c>
       <c r="O76" t="n">
-        <v>28.411616435</v>
+        <v>28.41161643500001</v>
       </c>
       <c r="P76" t="n">
         <v>19.278932285</v>
@@ -9915,7 +9915,7 @@
         <v>116.75961928</v>
       </c>
       <c r="AH76" t="n">
-        <v>28.411616435</v>
+        <v>28.41161643500001</v>
       </c>
       <c r="AI76" t="n">
         <v>0</v>
@@ -10097,19 +10097,19 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>159.564330455</v>
+        <v>159.5643304549999</v>
       </c>
       <c r="M78" t="n">
         <v>0.325</v>
       </c>
       <c r="N78" t="n">
-        <v>55.84282954500006</v>
+        <v>55.84282954500009</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>159.564330455</v>
+        <v>159.5643304549999</v>
       </c>
       <c r="Q78" t="n">
         <v>172.4</v>
@@ -10160,7 +10160,7 @@
         <v>62.46807640000001</v>
       </c>
       <c r="AG78" t="n">
-        <v>55.84282954500006</v>
+        <v>55.84282954500009</v>
       </c>
       <c r="AH78" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>174.675</v>
       </c>
       <c r="D80" t="n">
-        <v>190.8619820000001</v>
+        <v>190.861982</v>
       </c>
       <c r="E80" t="n">
         <v>96.81725</v>
@@ -10348,7 +10348,7 @@
         <v>259.6333060000002</v>
       </c>
       <c r="M80" t="n">
-        <v>0.3249999999999886</v>
+        <v>0.3250000000000019</v>
       </c>
       <c r="N80" t="n">
         <v>25.9320619999998</v>
@@ -10569,7 +10569,7 @@
         <v>174.35</v>
       </c>
       <c r="D82" t="n">
-        <v>38.10777378</v>
+        <v>38.10777377999997</v>
       </c>
       <c r="E82" t="n">
         <v>81.04105</v>
@@ -10711,13 +10711,13 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>38.10777378</v>
+        <v>38.10777377999996</v>
       </c>
       <c r="K83" t="n">
         <v>8.18275</v>
       </c>
       <c r="L83" t="n">
-        <v>77.32076800000007</v>
+        <v>77.32076800000003</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -10735,16 +10735,16 @@
         <v>171.75</v>
       </c>
       <c r="R83" t="n">
-        <v>31.03024422</v>
+        <v>31.03024422000004</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>31.03024421999999</v>
+        <v>31.03024422000004</v>
       </c>
       <c r="U83" t="n">
-        <v>69.13801799999993</v>
+        <v>69.13801799999997</v>
       </c>
       <c r="V83" t="n">
         <v>8.18275</v>
@@ -10792,16 +10792,16 @@
         <v>0</v>
       </c>
       <c r="AK83" t="n">
-        <v>77.32076799999993</v>
+        <v>77.32076799999997</v>
       </c>
       <c r="AL83" t="n">
-        <v>50.00000000000006</v>
+        <v>50.00000000000002</v>
       </c>
       <c r="AM83" t="n">
         <v>50</v>
       </c>
       <c r="AN83" t="n">
-        <v>50.00000000000004</v>
+        <v>50.00000000000002</v>
       </c>
     </row>
     <row r="84">
@@ -10868,7 +10868,7 @@
         <v>36.62744600000002</v>
       </c>
       <c r="U84" t="n">
-        <v>36.627446</v>
+        <v>36.62744599999999</v>
       </c>
       <c r="V84" t="n">
         <v>4.33455</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="AK84" t="n">
-        <v>40.961996</v>
+        <v>40.96199599999999</v>
       </c>
       <c r="AL84" t="n">
         <v>50.00000000000004</v>
@@ -10938,7 +10938,7 @@
         <v>12</v>
       </c>
       <c r="C85" t="n">
-        <v>97.48356177999992</v>
+        <v>97.48356177999993</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -10989,10 +10989,10 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>8.233747999999977</v>
+        <v>8.233747999999991</v>
       </c>
       <c r="U85" t="n">
-        <v>8.233748</v>
+        <v>8.233747999999999</v>
       </c>
       <c r="V85" t="n">
         <v>0.9727</v>
@@ -11040,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="AK85" t="n">
-        <v>9.206448</v>
+        <v>9.206447999999998</v>
       </c>
       <c r="AL85" t="n">
         <v>49.99999999999999</v>
@@ -11062,13 +11062,13 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>97.15856177999991</v>
+        <v>97.15856177999993</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>67.55105</v>
+        <v>67.55105000000002</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>94.88356177999991</v>
+        <v>94.88356177999992</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -11192,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>67.55104999999999</v>
+        <v>67.55105</v>
       </c>
       <c r="F87" t="n">
         <v>50.12927999999999</v>
@@ -11216,7 +11216,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>50.12928000000004</v>
+        <v>50.12928000000002</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -11264,7 +11264,7 @@
         <v>50.12927999999999</v>
       </c>
       <c r="AC87" t="n">
-        <v>50.12928000000004</v>
+        <v>50.12928000000002</v>
       </c>
       <c r="AD87" t="n">
         <v>0</v>
@@ -11316,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>67.55104999999999</v>
+        <v>67.55105</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -11440,7 +11440,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>67.55104999999999</v>
+        <v>67.55105</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -11564,7 +11564,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>67.55104999999999</v>
+        <v>67.55105</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -11806,7 +11806,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>50.26776177999995</v>
+        <v>50.26776177999997</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -11833,7 +11833,7 @@
         <v>8.18275</v>
       </c>
       <c r="L92" t="n">
-        <v>77.320768</v>
+        <v>77.32076799999999</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -11851,7 +11851,7 @@
         <v>117.1307797799999</v>
       </c>
       <c r="R92" t="n">
-        <v>69.13801799999999</v>
+        <v>69.138018</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -11860,7 +11860,7 @@
         <v>69.13801799999999</v>
       </c>
       <c r="U92" t="n">
-        <v>69.138018</v>
+        <v>69.13801800000002</v>
       </c>
       <c r="V92" t="n">
         <v>8.18275</v>
@@ -11908,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="AK92" t="n">
-        <v>77.320768</v>
+        <v>77.32076800000002</v>
       </c>
       <c r="AL92" t="n">
         <v>49.99999999999999</v>
@@ -11957,7 +11957,7 @@
         <v>12.0274</v>
       </c>
       <c r="L93" t="n">
-        <v>59.69516177999994</v>
+        <v>59.69516177999996</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>47.66776177999995</v>
+        <v>47.66776177999996</v>
       </c>
       <c r="R93" t="n">
         <v>101.64859</v>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="AI93" t="n">
-        <v>47.66776177999995</v>
+        <v>47.66776177999996</v>
       </c>
       <c r="AJ93" t="n">
         <v>0</v>
@@ -12035,13 +12035,13 @@
         <v>167.65681822</v>
       </c>
       <c r="AL93" t="n">
-        <v>23.44733054339462</v>
+        <v>23.44733054339463</v>
       </c>
       <c r="AM93" t="n">
         <v>50</v>
       </c>
       <c r="AN93" t="n">
-        <v>26.25671515154605</v>
+        <v>26.25671515154606</v>
       </c>
     </row>
     <row r="94">
@@ -12178,7 +12178,7 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>1.625000000000104</v>
+        <v>1.625000000000111</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -12426,7 +12426,7 @@
         <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>0.975000000000108</v>
+        <v>0.9750000000001222</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -12550,7 +12550,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>84.51070400000005</v>
+        <v>84.51070400000006</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -12592,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>82.23570400000004</v>
+        <v>82.23570400000006</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -12701,10 +12701,10 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>13.69705736000002</v>
+        <v>13.69705736000003</v>
       </c>
       <c r="M99" t="n">
-        <v>90.48929599999995</v>
+        <v>90.48929599999994</v>
       </c>
       <c r="N99" t="n">
         <v>244.4478766400001</v>
@@ -12713,7 +12713,7 @@
         <v>86.14785000000002</v>
       </c>
       <c r="P99" t="n">
-        <v>13.69705736000002</v>
+        <v>13.69705736000003</v>
       </c>
       <c r="Q99" t="n">
         <v>172.4</v>
@@ -12752,7 +12752,7 @@
         <v>434.7820800000001</v>
       </c>
       <c r="AC99" t="n">
-        <v>90.48929599999995</v>
+        <v>90.48929599999994</v>
       </c>
       <c r="AD99" t="n">
         <v>344.2927840000001</v>
@@ -13073,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>327.89996</v>
+        <v>327.8999600000001</v>
       </c>
       <c r="M102" t="n">
         <v>0.325</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>327.89996</v>
+        <v>327.8999600000001</v>
       </c>
       <c r="Q102" t="n">
         <v>172.4</v>
@@ -13324,7 +13324,7 @@
         <v>265.8541060000002</v>
       </c>
       <c r="M104" t="n">
-        <v>0.3250000000000171</v>
+        <v>0.3250000000000258</v>
       </c>
       <c r="N104" t="n">
         <v>25.93206199999983</v>
@@ -13666,7 +13666,7 @@
         <v>10</v>
       </c>
       <c r="C107" t="n">
-        <v>155.90705434</v>
+        <v>155.9070543399999</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -13687,13 +13687,13 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>51.02007234000014</v>
+        <v>51.02007234000012</v>
       </c>
       <c r="K107" t="n">
         <v>8.18275</v>
       </c>
       <c r="L107" t="n">
-        <v>77.32076800000013</v>
+        <v>77.32076800000016</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -13711,16 +13711,16 @@
         <v>171.75</v>
       </c>
       <c r="R107" t="n">
-        <v>18.11794565999986</v>
+        <v>18.11794565999988</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>18.11794565999986</v>
+        <v>18.11794565999989</v>
       </c>
       <c r="U107" t="n">
-        <v>69.13801799999987</v>
+        <v>69.13801799999985</v>
       </c>
       <c r="V107" t="n">
         <v>8.18275</v>
@@ -13762,22 +13762,22 @@
         <v>0</v>
       </c>
       <c r="AI107" t="n">
-        <v>18.11794565999999</v>
+        <v>18.11794566000003</v>
       </c>
       <c r="AJ107" t="n">
         <v>0</v>
       </c>
       <c r="AK107" t="n">
-        <v>77.32076799999987</v>
+        <v>77.32076799999984</v>
       </c>
       <c r="AL107" t="n">
-        <v>50.00000000000009</v>
+        <v>50.00000000000011</v>
       </c>
       <c r="AM107" t="n">
         <v>50</v>
       </c>
       <c r="AN107" t="n">
-        <v>50.00000000000008</v>
+        <v>50.0000000000001</v>
       </c>
     </row>
     <row r="108">
@@ -13790,7 +13790,7 @@
         <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>118.95460834</v>
+        <v>118.9546083399999</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -13844,7 +13844,7 @@
         <v>36.62744600000002</v>
       </c>
       <c r="U108" t="n">
-        <v>36.627446</v>
+        <v>36.62744599999999</v>
       </c>
       <c r="V108" t="n">
         <v>4.33455</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AK108" t="n">
-        <v>40.961996</v>
+        <v>40.96199599999999</v>
       </c>
       <c r="AL108" t="n">
         <v>50.00000000000004</v>
@@ -13941,7 +13941,7 @@
         <v>0.9727</v>
       </c>
       <c r="L109" t="n">
-        <v>9.206448000000002</v>
+        <v>9.206448</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -13956,16 +13956,16 @@
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>116.35460834</v>
+        <v>116.3546083399999</v>
       </c>
       <c r="R109" t="n">
-        <v>8.233747999999993</v>
+        <v>8.233747999999999</v>
       </c>
       <c r="S109" t="n">
         <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>8.233747999999977</v>
+        <v>8.233747999999949</v>
       </c>
       <c r="U109" t="n">
         <v>8.233747999999999</v>
@@ -14010,7 +14010,7 @@
         <v>0</v>
       </c>
       <c r="AI109" t="n">
-        <v>8.233747999999995</v>
+        <v>8.233747999999999</v>
       </c>
       <c r="AJ109" t="n">
         <v>0</v>
@@ -14019,13 +14019,13 @@
         <v>9.206447999999998</v>
       </c>
       <c r="AL109" t="n">
-        <v>49.99999999999996</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="AM109" t="n">
         <v>50</v>
       </c>
       <c r="AN109" t="n">
-        <v>49.99999999999997</v>
+        <v>49.99999999999999</v>
       </c>
     </row>
     <row r="110">
@@ -14658,7 +14658,7 @@
         <v>6</v>
       </c>
       <c r="C115" t="n">
-        <v>82.51379833999998</v>
+        <v>82.51379833999997</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -14703,7 +14703,7 @@
         <v>106.17086034</v>
       </c>
       <c r="R115" t="n">
-        <v>25.93206199999999</v>
+        <v>25.932062</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="AI115" t="n">
-        <v>25.93206199999999</v>
+        <v>25.932062</v>
       </c>
       <c r="AJ115" t="n">
         <v>0</v>
@@ -14763,13 +14763,13 @@
         <v>28.999262</v>
       </c>
       <c r="AL115" t="n">
-        <v>49.99999999999999</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="AM115" t="n">
         <v>50</v>
       </c>
       <c r="AN115" t="n">
-        <v>49.99999999999999</v>
+        <v>50.00000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -14782,7 +14782,7 @@
         <v>7</v>
       </c>
       <c r="C116" t="n">
-        <v>13.05078033999999</v>
+        <v>13.05078033999998</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -14824,7 +14824,7 @@
         <v>0</v>
       </c>
       <c r="Q116" t="n">
-        <v>79.91379833999997</v>
+        <v>79.91379833999996</v>
       </c>
       <c r="R116" t="n">
         <v>69.13801799999999</v>
@@ -14836,7 +14836,7 @@
         <v>69.13801799999999</v>
       </c>
       <c r="U116" t="n">
-        <v>69.138018</v>
+        <v>69.13801799999999</v>
       </c>
       <c r="V116" t="n">
         <v>8.18275</v>
@@ -14884,7 +14884,7 @@
         <v>0</v>
       </c>
       <c r="AK116" t="n">
-        <v>77.320768</v>
+        <v>77.32076799999999</v>
       </c>
       <c r="AL116" t="n">
         <v>49.99999999999999</v>
@@ -14906,7 +14906,7 @@
         <v>8</v>
       </c>
       <c r="C117" t="n">
-        <v>2.275000000000003</v>
+        <v>2.274999999999996</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -14933,7 +14933,7 @@
         <v>12.0274</v>
       </c>
       <c r="L117" t="n">
-        <v>22.47818033999999</v>
+        <v>22.47818033999997</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
@@ -14948,7 +14948,7 @@
         <v>0</v>
       </c>
       <c r="Q117" t="n">
-        <v>10.45078033999999</v>
+        <v>10.45078033999998</v>
       </c>
       <c r="R117" t="n">
         <v>101.64859</v>
@@ -15002,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="AI117" t="n">
-        <v>10.45078034</v>
+        <v>10.45078033999999</v>
       </c>
       <c r="AJ117" t="n">
         <v>0</v>
@@ -15011,13 +15011,13 @@
         <v>204.87379966</v>
       </c>
       <c r="AL117" t="n">
-        <v>5.140642059078244</v>
+        <v>5.140642059078235</v>
       </c>
       <c r="AM117" t="n">
         <v>50</v>
       </c>
       <c r="AN117" t="n">
-        <v>9.886951650915908</v>
+        <v>9.886951650915901</v>
       </c>
     </row>
     <row r="118">
@@ -15042,7 +15042,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.3250000000000817</v>
+        <v>0.3250000000001101</v>
       </c>
       <c r="H118" t="n">
         <v>0.325</v>
@@ -15057,7 +15057,7 @@
         <v>11.93155</v>
       </c>
       <c r="L118" t="n">
-        <v>11.93154999999996</v>
+        <v>11.93154999999997</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -15154,7 +15154,7 @@
         <v>10</v>
       </c>
       <c r="C119" t="n">
-        <v>1.62499999999998</v>
+        <v>1.624999999999966</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -15166,10 +15166,10 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.3249999999999598</v>
+        <v>0.3249999999999456</v>
       </c>
       <c r="H119" t="n">
-        <v>0.3249999999999183</v>
+        <v>0.3249999999998899</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -15293,7 +15293,7 @@
         <v>0.3250000000000006</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3249999999999585</v>
+        <v>0.3249999999999443</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>12</v>
       </c>
       <c r="C121" t="n">
-        <v>0.974999999998969</v>
+        <v>0.9749999999989877</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -15414,10 +15414,10 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0.3250000000004839</v>
+        <v>0.3250000000004604</v>
       </c>
       <c r="H121" t="n">
-        <v>0.3249999999999579</v>
+        <v>0.3249999999999437</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -15538,10 +15538,10 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.324999999999474</v>
+        <v>0.3249999999994834</v>
       </c>
       <c r="H122" t="n">
-        <v>0.324999999999474</v>
+        <v>0.3249999999994834</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -15650,7 +15650,7 @@
         <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3249999999994939</v>
+        <v>0.3249999999995032</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -15898,7 +15898,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>52.54661599999947</v>
+        <v>52.54661599999949</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="Q125" t="n">
-        <v>50.27161599999947</v>
+        <v>50.27161599999948</v>
       </c>
       <c r="R125" t="n">
         <v>0</v>
@@ -16025,10 +16025,10 @@
         <v>174.675</v>
       </c>
       <c r="D126" t="n">
-        <v>42.52460935999962</v>
+        <v>42.52460935999963</v>
       </c>
       <c r="E126" t="n">
-        <v>36.22135663999987</v>
+        <v>36.22135663999988</v>
       </c>
       <c r="F126" t="n">
         <v>182.3472</v>
@@ -16055,7 +16055,7 @@
         <v>122.4533840000005</v>
       </c>
       <c r="N126" t="n">
-        <v>42.52460935999963</v>
+        <v>42.52460935999964</v>
       </c>
       <c r="O126" t="n">
         <v>17.36920663999985</v>
@@ -16103,16 +16103,16 @@
         <v>122.4533840000005</v>
       </c>
       <c r="AD126" t="n">
-        <v>59.89381599999946</v>
+        <v>59.89381599999948</v>
       </c>
       <c r="AE126" t="n">
         <v>42.52460935999962</v>
       </c>
       <c r="AF126" t="n">
-        <v>17.36920663999984</v>
+        <v>17.36920663999985</v>
       </c>
       <c r="AG126" t="n">
-        <v>42.52460935999963</v>
+        <v>42.52460935999964</v>
       </c>
       <c r="AH126" t="n">
         <v>17.36920663999985</v>
@@ -16152,7 +16152,7 @@
         <v>117.7014719199996</v>
       </c>
       <c r="E127" t="n">
-        <v>74.45216807999986</v>
+        <v>74.45216807999988</v>
       </c>
       <c r="F127" t="n">
         <v>142.731936</v>
@@ -16276,7 +16276,7 @@
         <v>117.6391551199996</v>
       </c>
       <c r="E128" t="n">
-        <v>94.48343687999986</v>
+        <v>94.48343687999987</v>
       </c>
       <c r="F128" t="n">
         <v>97.61471999999998</v>
@@ -16614,7 +16614,7 @@
         <v>0</v>
       </c>
       <c r="AI130" t="n">
-        <v>84.84101638000038</v>
+        <v>84.84101638000037</v>
       </c>
       <c r="AJ130" t="n">
         <v>0</v>
@@ -16623,13 +16623,13 @@
         <v>112.7631315</v>
       </c>
       <c r="AL130" t="n">
-        <v>50</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="AM130" t="n">
         <v>50</v>
       </c>
       <c r="AN130" t="n">
-        <v>50</v>
+        <v>49.99999999999999</v>
       </c>
     </row>
     <row r="131">
@@ -16669,7 +16669,7 @@
         <v>8.18275</v>
       </c>
       <c r="L131" t="n">
-        <v>77.32076799999999</v>
+        <v>77.320768</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
@@ -16693,7 +16693,7 @@
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>69.138018</v>
+        <v>69.13801799999999</v>
       </c>
       <c r="U131" t="n">
         <v>69.13801800000002</v>
@@ -16766,7 +16766,7 @@
         <v>11</v>
       </c>
       <c r="C132" t="n">
-        <v>2.275000000000003</v>
+        <v>2.275000000000002</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -16811,13 +16811,13 @@
         <v>17.12096561999957</v>
       </c>
       <c r="R132" t="n">
-        <v>36.62744599999999</v>
+        <v>36.627446</v>
       </c>
       <c r="S132" t="n">
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>36.62744599999999</v>
+        <v>36.627446</v>
       </c>
       <c r="U132" t="n">
         <v>56.13392638000042</v>
@@ -16871,13 +16871,13 @@
         <v>60.46847638000042</v>
       </c>
       <c r="AL132" t="n">
-        <v>23.37177102110746</v>
+        <v>23.37177102110747</v>
       </c>
       <c r="AM132" t="n">
         <v>50</v>
       </c>
       <c r="AN132" t="n">
-        <v>26.18953873732077</v>
+        <v>26.18953873732078</v>
       </c>
     </row>
     <row r="133">
@@ -16917,7 +16917,7 @@
         <v>0.9727</v>
       </c>
       <c r="L133" t="n">
-        <v>0.9727000000000089</v>
+        <v>0.9727000000000086</v>
       </c>
       <c r="M133" t="n">
         <v>0</v>
@@ -17661,7 +17661,7 @@
         <v>3.0672</v>
       </c>
       <c r="L139" t="n">
-        <v>63.84229071999985</v>
+        <v>63.84229071999987</v>
       </c>
       <c r="M139" t="n">
         <v>0.325</v>
@@ -17673,7 +17673,7 @@
         <v>22.79750816000015</v>
       </c>
       <c r="P139" t="n">
-        <v>34.84302871999985</v>
+        <v>34.84302871999986</v>
       </c>
       <c r="Q139" t="n">
         <v>172.4</v>
@@ -17788,7 +17788,7 @@
         <v>186.5602601600001</v>
       </c>
       <c r="M140" t="n">
-        <v>0.3249999999999886</v>
+        <v>0.3249999999999923</v>
       </c>
       <c r="N140" t="n">
         <v>83.19390783999998</v>
@@ -18130,7 +18130,7 @@
         <v>10</v>
       </c>
       <c r="C143" t="n">
-        <v>162.4068104999998</v>
+        <v>162.4068104999997</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -18151,13 +18151,13 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>57.51982850000001</v>
+        <v>57.5198285</v>
       </c>
       <c r="K143" t="n">
         <v>8.18275</v>
       </c>
       <c r="L143" t="n">
-        <v>77.32076800000002</v>
+        <v>77.32076800000007</v>
       </c>
       <c r="M143" t="n">
         <v>0</v>
@@ -18175,7 +18175,7 @@
         <v>171.75</v>
       </c>
       <c r="R143" t="n">
-        <v>11.61818949999999</v>
+        <v>11.61818950000001</v>
       </c>
       <c r="S143" t="n">
         <v>0</v>
@@ -18184,7 +18184,7 @@
         <v>11.6181895</v>
       </c>
       <c r="U143" t="n">
-        <v>69.13801799999999</v>
+        <v>69.13801799999995</v>
       </c>
       <c r="V143" t="n">
         <v>8.18275</v>
@@ -18226,22 +18226,22 @@
         <v>0</v>
       </c>
       <c r="AI143" t="n">
-        <v>11.61818950000001</v>
+        <v>11.61818950000007</v>
       </c>
       <c r="AJ143" t="n">
         <v>0</v>
       </c>
       <c r="AK143" t="n">
-        <v>77.32076799999999</v>
+        <v>77.32076799999994</v>
       </c>
       <c r="AL143" t="n">
-        <v>50.00000000000001</v>
+        <v>50.00000000000006</v>
       </c>
       <c r="AM143" t="n">
         <v>50</v>
       </c>
       <c r="AN143" t="n">
-        <v>50.00000000000001</v>
+        <v>50.00000000000004</v>
       </c>
     </row>
     <row r="144">
@@ -18254,7 +18254,7 @@
         <v>11</v>
       </c>
       <c r="C144" t="n">
-        <v>125.4543644999998</v>
+        <v>125.4543644999997</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -18296,7 +18296,7 @@
         <v>0</v>
       </c>
       <c r="Q144" t="n">
-        <v>159.8068104999998</v>
+        <v>159.8068104999997</v>
       </c>
       <c r="R144" t="n">
         <v>36.62744600000002</v>
@@ -18308,7 +18308,7 @@
         <v>36.62744600000002</v>
       </c>
       <c r="U144" t="n">
-        <v>36.627446</v>
+        <v>36.62744599999999</v>
       </c>
       <c r="V144" t="n">
         <v>4.33455</v>
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="AK144" t="n">
-        <v>40.961996</v>
+        <v>40.96199599999999</v>
       </c>
       <c r="AL144" t="n">
         <v>50.00000000000004</v>
@@ -18378,7 +18378,7 @@
         <v>12</v>
       </c>
       <c r="C145" t="n">
-        <v>116.8956164999998</v>
+        <v>116.8956164999997</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -18420,7 +18420,7 @@
         <v>0</v>
       </c>
       <c r="Q145" t="n">
-        <v>122.8543644999998</v>
+        <v>122.8543644999997</v>
       </c>
       <c r="R145" t="n">
         <v>8.233747999999991</v>
@@ -18432,7 +18432,7 @@
         <v>8.233747999999977</v>
       </c>
       <c r="U145" t="n">
-        <v>8.233748</v>
+        <v>8.233747999999999</v>
       </c>
       <c r="V145" t="n">
         <v>0.9727</v>
@@ -18480,7 +18480,7 @@
         <v>0</v>
       </c>
       <c r="AK145" t="n">
-        <v>9.206448</v>
+        <v>9.206447999999998</v>
       </c>
       <c r="AL145" t="n">
         <v>49.99999999999994</v>
@@ -18505,7 +18505,7 @@
         <v>174.675</v>
       </c>
       <c r="D146" t="n">
-        <v>122.6693245149998</v>
+        <v>122.6693245149997</v>
       </c>
       <c r="E146" t="n">
         <v>105</v>
@@ -18529,19 +18529,19 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>12.65542198500012</v>
+        <v>12.65542198500009</v>
       </c>
       <c r="M146" t="n">
-        <v>58.10438350000018</v>
+        <v>58.10438350000027</v>
       </c>
       <c r="N146" t="n">
-        <v>122.6693245149998</v>
+        <v>122.6693245149997</v>
       </c>
       <c r="O146" t="n">
         <v>37.44894999999982</v>
       </c>
       <c r="P146" t="n">
-        <v>12.65542198500012</v>
+        <v>12.65542198500009</v>
       </c>
       <c r="Q146" t="n">
         <v>172.4</v>
@@ -18580,7 +18580,7 @@
         <v>230.8780799999999</v>
       </c>
       <c r="AC146" t="n">
-        <v>58.10438350000018</v>
+        <v>58.10438350000027</v>
       </c>
       <c r="AD146" t="n">
         <v>172.7736964999997</v>
@@ -18589,10 +18589,10 @@
         <v>122.6693245149998</v>
       </c>
       <c r="AF146" t="n">
-        <v>50.10437198499992</v>
+        <v>50.1043719849999</v>
       </c>
       <c r="AG146" t="n">
-        <v>122.6693245149998</v>
+        <v>122.6693245149997</v>
       </c>
       <c r="AH146" t="n">
         <v>37.44894999999982</v>
@@ -18629,7 +18629,7 @@
         <v>174.675</v>
       </c>
       <c r="D147" t="n">
-        <v>241.1944241149998</v>
+        <v>241.1944241149997</v>
       </c>
       <c r="E147" t="n">
         <v>105</v>
@@ -18777,19 +18777,19 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>431.1888161149998</v>
+        <v>431.1888161149997</v>
       </c>
       <c r="M148" t="n">
         <v>0.325</v>
       </c>
       <c r="N148" t="n">
-        <v>18.80557588500022</v>
+        <v>18.80557588500028</v>
       </c>
       <c r="O148" t="n">
         <v>0</v>
       </c>
       <c r="P148" t="n">
-        <v>431.1888161149998</v>
+        <v>431.1888161149997</v>
       </c>
       <c r="Q148" t="n">
         <v>172.4</v>
@@ -18840,7 +18840,7 @@
         <v>130.49837368</v>
       </c>
       <c r="AG148" t="n">
-        <v>18.80557588500022</v>
+        <v>18.80557588500028</v>
       </c>
       <c r="AH148" t="n">
         <v>0</v>
@@ -19279,7 +19279,7 @@
         <v>0.3249999999999744</v>
       </c>
       <c r="N152" t="n">
-        <v>25.932062</v>
+        <v>25.93206200000001</v>
       </c>
       <c r="O152" t="n">
         <v>3.0672</v>
@@ -19336,7 +19336,7 @@
         <v>16.89371799999999</v>
       </c>
       <c r="AG152" t="n">
-        <v>25.932062</v>
+        <v>25.93206200000001</v>
       </c>
       <c r="AH152" t="n">
         <v>3.0672</v>
@@ -19618,7 +19618,7 @@
         <v>10</v>
       </c>
       <c r="C155" t="n">
-        <v>92.94379250000004</v>
+        <v>92.94379250000007</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -19645,7 +19645,7 @@
         <v>8.18275</v>
       </c>
       <c r="L155" t="n">
-        <v>77.32076799999999</v>
+        <v>77.320768</v>
       </c>
       <c r="M155" t="n">
         <v>0</v>
@@ -19742,7 +19742,7 @@
         <v>11</v>
       </c>
       <c r="C156" t="n">
-        <v>55.99134650000001</v>
+        <v>55.9913465</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -19784,7 +19784,7 @@
         <v>0</v>
       </c>
       <c r="Q156" t="n">
-        <v>90.34379250000003</v>
+        <v>90.34379250000006</v>
       </c>
       <c r="R156" t="n">
         <v>36.62744600000001</v>
@@ -19796,7 +19796,7 @@
         <v>36.62744600000001</v>
       </c>
       <c r="U156" t="n">
-        <v>36.627446</v>
+        <v>36.62744600000001</v>
       </c>
       <c r="V156" t="n">
         <v>4.33455</v>
@@ -19844,7 +19844,7 @@
         <v>0</v>
       </c>
       <c r="AK156" t="n">
-        <v>40.961996</v>
+        <v>40.96199600000001</v>
       </c>
       <c r="AL156" t="n">
         <v>50.00000000000001</v>
@@ -19866,7 +19866,7 @@
         <v>12</v>
       </c>
       <c r="C157" t="n">
-        <v>47.43259850000001</v>
+        <v>47.4325985</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -19893,7 +19893,7 @@
         <v>0.9727</v>
       </c>
       <c r="L157" t="n">
-        <v>9.206448000000002</v>
+        <v>9.206448</v>
       </c>
       <c r="M157" t="n">
         <v>0</v>
@@ -19911,7 +19911,7 @@
         <v>53.3913465</v>
       </c>
       <c r="R157" t="n">
-        <v>8.233748000000002</v>
+        <v>8.233748</v>
       </c>
       <c r="S157" t="n">
         <v>0</v>
@@ -19920,7 +19920,7 @@
         <v>8.233747999999999</v>
       </c>
       <c r="U157" t="n">
-        <v>8.233747999999999</v>
+        <v>8.233748</v>
       </c>
       <c r="V157" t="n">
         <v>0.9727</v>
@@ -19962,22 +19962,22 @@
         <v>0</v>
       </c>
       <c r="AI157" t="n">
-        <v>8.233748000000002</v>
+        <v>8.233748</v>
       </c>
       <c r="AJ157" t="n">
         <v>0</v>
       </c>
       <c r="AK157" t="n">
-        <v>9.206447999999998</v>
+        <v>9.206448</v>
       </c>
       <c r="AL157" t="n">
-        <v>50.00000000000001</v>
+        <v>50</v>
       </c>
       <c r="AM157" t="n">
         <v>50</v>
       </c>
       <c r="AN157" t="n">
-        <v>50.00000000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158">
@@ -20120,7 +20120,7 @@
         <v>13.19594533500003</v>
       </c>
       <c r="E159" t="n">
-        <v>64.75819316499999</v>
+        <v>64.75819316499998</v>
       </c>
       <c r="F159" t="n">
         <v>82.86624</v>
@@ -20144,13 +20144,13 @@
         <v>0</v>
       </c>
       <c r="M159" t="n">
-        <v>64.28040149999998</v>
+        <v>64.2804015</v>
       </c>
       <c r="N159" t="n">
-        <v>13.19594533500002</v>
+        <v>13.195945335</v>
       </c>
       <c r="O159" t="n">
-        <v>5.389893165000006</v>
+        <v>5.389893165000001</v>
       </c>
       <c r="P159" t="n">
         <v>0</v>
@@ -20192,22 +20192,22 @@
         <v>82.86624</v>
       </c>
       <c r="AC159" t="n">
-        <v>64.28040149999998</v>
+        <v>64.2804015</v>
       </c>
       <c r="AD159" t="n">
-        <v>18.58583850000002</v>
+        <v>18.58583850000001</v>
       </c>
       <c r="AE159" t="n">
-        <v>13.19594533500002</v>
+        <v>13.195945335</v>
       </c>
       <c r="AF159" t="n">
-        <v>5.389893165000006</v>
+        <v>5.389893165000002</v>
       </c>
       <c r="AG159" t="n">
-        <v>13.19594533500002</v>
+        <v>13.195945335</v>
       </c>
       <c r="AH159" t="n">
-        <v>5.389893165000006</v>
+        <v>5.389893165000001</v>
       </c>
       <c r="AI159" t="n">
         <v>0</v>
@@ -20398,7 +20398,7 @@
         <v>216.056698105</v>
       </c>
       <c r="O161" t="n">
-        <v>27.683027395</v>
+        <v>27.68302739500001</v>
       </c>
       <c r="P161" t="n">
         <v>142.4551785</v>
@@ -20455,7 +20455,7 @@
         <v>216.056698105</v>
       </c>
       <c r="AH161" t="n">
-        <v>27.683027395</v>
+        <v>27.68302739500001</v>
       </c>
       <c r="AI161" t="n">
         <v>0</v>
@@ -20637,7 +20637,7 @@
         <v>3.0672</v>
       </c>
       <c r="L163" t="n">
-        <v>362.885014</v>
+        <v>362.8850139999999</v>
       </c>
       <c r="M163" t="n">
         <v>0.325</v>
@@ -20649,7 +20649,7 @@
         <v>0</v>
       </c>
       <c r="P163" t="n">
-        <v>333.885752</v>
+        <v>333.8857519999999</v>
       </c>
       <c r="Q163" t="n">
         <v>172.4</v>
@@ -20764,7 +20764,7 @@
         <v>359.062426</v>
       </c>
       <c r="M164" t="n">
-        <v>0.3249999999999886</v>
+        <v>0.3249999999999775</v>
       </c>
       <c r="N164" t="n">
         <v>25.932062</v>
@@ -20888,7 +20888,7 @@
         <v>270.470574</v>
       </c>
       <c r="M165" t="n">
-        <v>0.3249999999999886</v>
+        <v>0.324999999999981</v>
       </c>
       <c r="N165" t="n">
         <v>69.13801799999999</v>
@@ -21160,7 +21160,7 @@
         <v>2.150453099999964</v>
       </c>
       <c r="U167" t="n">
-        <v>69.138018</v>
+        <v>69.13801799999999</v>
       </c>
       <c r="V167" t="n">
         <v>8.18275</v>
@@ -21208,7 +21208,7 @@
         <v>0</v>
       </c>
       <c r="AK167" t="n">
-        <v>77.320768</v>
+        <v>77.32076799999999</v>
       </c>
       <c r="AL167" t="n">
         <v>50.00000000000001</v>
@@ -21284,7 +21284,7 @@
         <v>36.62744600000002</v>
       </c>
       <c r="U168" t="n">
-        <v>36.627446</v>
+        <v>36.62744599999999</v>
       </c>
       <c r="V168" t="n">
         <v>4.33455</v>
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="AK168" t="n">
-        <v>40.961996</v>
+        <v>40.96199599999999</v>
       </c>
       <c r="AL168" t="n">
         <v>50.00000000000004</v>
@@ -21381,7 +21381,7 @@
         <v>0.9727</v>
       </c>
       <c r="L169" t="n">
-        <v>9.206447999999998</v>
+        <v>9.206447999999993</v>
       </c>
       <c r="M169" t="n">
         <v>0</v>
@@ -21399,16 +21399,16 @@
         <v>132.6471009</v>
       </c>
       <c r="R169" t="n">
-        <v>8.233747999999993</v>
+        <v>8.233747999999999</v>
       </c>
       <c r="S169" t="n">
         <v>0</v>
       </c>
       <c r="T169" t="n">
-        <v>8.233747999999963</v>
+        <v>8.233747999999935</v>
       </c>
       <c r="U169" t="n">
-        <v>8.233748000000002</v>
+        <v>8.233748000000006</v>
       </c>
       <c r="V169" t="n">
         <v>0.9727</v>
@@ -21456,7 +21456,7 @@
         <v>0</v>
       </c>
       <c r="AK169" t="n">
-        <v>9.206448000000002</v>
+        <v>9.206448000000005</v>
       </c>
       <c r="AL169" t="n">
         <v>49.99999999999994</v>
@@ -21632,7 +21632,7 @@
         <v>66.59143634100002</v>
       </c>
       <c r="M171" t="n">
-        <v>48.6366471</v>
+        <v>48.63664709999999</v>
       </c>
       <c r="N171" t="n">
         <v>245.251830159</v>
@@ -21680,7 +21680,7 @@
         <v>394.06176</v>
       </c>
       <c r="AC171" t="n">
-        <v>48.6366471</v>
+        <v>48.63664709999999</v>
       </c>
       <c r="AD171" t="n">
         <v>345.4251129</v>
@@ -21753,19 +21753,19 @@
         <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>85.68823815900001</v>
+        <v>85.68823815900005</v>
       </c>
       <c r="M172" t="n">
         <v>0.3249999999999886</v>
       </c>
       <c r="N172" t="n">
-        <v>14.74816984099999</v>
+        <v>14.74816984099995</v>
       </c>
       <c r="O172" t="n">
         <v>0</v>
       </c>
       <c r="P172" t="n">
-        <v>85.68823815900001</v>
+        <v>85.68823815900005</v>
       </c>
       <c r="Q172" t="n">
         <v>172.4</v>
@@ -21816,7 +21816,7 @@
         <v>29.12655832</v>
       </c>
       <c r="AG172" t="n">
-        <v>14.74816984099999</v>
+        <v>14.74816984099995</v>
       </c>
       <c r="AH172" t="n">
         <v>-0</v>
@@ -22252,13 +22252,13 @@
         <v>77.320768</v>
       </c>
       <c r="M176" t="n">
-        <v>0.3249999999999913</v>
+        <v>0.3249999999999886</v>
       </c>
       <c r="N176" t="n">
-        <v>5.032565200000001</v>
+        <v>5.032565200000002</v>
       </c>
       <c r="O176" t="n">
-        <v>2.0555548</v>
+        <v>2.055554800000001</v>
       </c>
       <c r="P176" t="n">
         <v>0</v>
@@ -22300,22 +22300,22 @@
         <v>7.413119999999992</v>
       </c>
       <c r="AC176" t="n">
-        <v>0.3249999999999913</v>
+        <v>0.3249999999999886</v>
       </c>
       <c r="AD176" t="n">
-        <v>7.088120000000001</v>
+        <v>7.088120000000004</v>
       </c>
       <c r="AE176" t="n">
-        <v>5.032565200000001</v>
+        <v>5.032565200000002</v>
       </c>
       <c r="AF176" t="n">
-        <v>2.0555548</v>
+        <v>2.055554800000001</v>
       </c>
       <c r="AG176" t="n">
-        <v>5.032565200000001</v>
+        <v>5.032565200000002</v>
       </c>
       <c r="AH176" t="n">
-        <v>2.0555548</v>
+        <v>2.055554800000001</v>
       </c>
       <c r="AI176" t="n">
         <v>0</v>
@@ -22491,13 +22491,13 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>68.31389520000022</v>
+        <v>68.31389520000018</v>
       </c>
       <c r="K178" t="n">
         <v>11.93155</v>
       </c>
       <c r="L178" t="n">
-        <v>112.7631315000001</v>
+        <v>112.7631315</v>
       </c>
       <c r="M178" t="n">
         <v>0</v>
@@ -22515,16 +22515,16 @@
         <v>171.75</v>
       </c>
       <c r="R178" t="n">
-        <v>32.51768629999978</v>
+        <v>32.51768629999982</v>
       </c>
       <c r="S178" t="n">
         <v>0</v>
       </c>
       <c r="T178" t="n">
-        <v>32.51768629999978</v>
+        <v>32.51768629999984</v>
       </c>
       <c r="U178" t="n">
-        <v>100.8315814999999</v>
+        <v>100.8315815</v>
       </c>
       <c r="V178" t="n">
         <v>11.93155</v>
@@ -22566,22 +22566,22 @@
         <v>0</v>
       </c>
       <c r="AI178" t="n">
-        <v>32.51768629999989</v>
+        <v>32.51768629999987</v>
       </c>
       <c r="AJ178" t="n">
         <v>0</v>
       </c>
       <c r="AK178" t="n">
-        <v>112.7631314999999</v>
+        <v>112.7631315</v>
       </c>
       <c r="AL178" t="n">
-        <v>50.00000000000006</v>
+        <v>50.00000000000002</v>
       </c>
       <c r="AM178" t="n">
         <v>50</v>
       </c>
       <c r="AN178" t="n">
-        <v>50.00000000000006</v>
+        <v>50.00000000000002</v>
       </c>
     </row>
     <row r="179">
@@ -22594,7 +22594,7 @@
         <v>10</v>
       </c>
       <c r="C179" t="n">
-        <v>72.04429570000009</v>
+        <v>72.04429570000013</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -22648,7 +22648,7 @@
         <v>69.13801799999999</v>
       </c>
       <c r="U179" t="n">
-        <v>69.138018</v>
+        <v>69.13801799999999</v>
       </c>
       <c r="V179" t="n">
         <v>8.18275</v>
@@ -22696,7 +22696,7 @@
         <v>0</v>
       </c>
       <c r="AK179" t="n">
-        <v>77.320768</v>
+        <v>77.32076799999999</v>
       </c>
       <c r="AL179" t="n">
         <v>49.99999999999999</v>
@@ -22718,7 +22718,7 @@
         <v>11</v>
       </c>
       <c r="C180" t="n">
-        <v>35.09184970000009</v>
+        <v>35.09184970000014</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -22760,7 +22760,7 @@
         <v>0</v>
       </c>
       <c r="Q180" t="n">
-        <v>69.44429570000008</v>
+        <v>69.44429570000013</v>
       </c>
       <c r="R180" t="n">
         <v>36.62744599999999</v>
@@ -22772,7 +22772,7 @@
         <v>36.62744599999999</v>
       </c>
       <c r="U180" t="n">
-        <v>36.627446</v>
+        <v>36.62744599999999</v>
       </c>
       <c r="V180" t="n">
         <v>4.33455</v>
@@ -22820,7 +22820,7 @@
         <v>0</v>
       </c>
       <c r="AK180" t="n">
-        <v>40.961996</v>
+        <v>40.96199599999999</v>
       </c>
       <c r="AL180" t="n">
         <v>49.99999999999999</v>
@@ -22842,7 +22842,7 @@
         <v>12</v>
       </c>
       <c r="C181" t="n">
-        <v>26.5331017000001</v>
+        <v>26.53310170000013</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -22869,7 +22869,7 @@
         <v>0.9727</v>
       </c>
       <c r="L181" t="n">
-        <v>9.206448000000002</v>
+        <v>9.206447999999996</v>
       </c>
       <c r="M181" t="n">
         <v>0</v>
@@ -22884,19 +22884,19 @@
         <v>0</v>
       </c>
       <c r="Q181" t="n">
-        <v>32.49184970000009</v>
+        <v>32.49184970000014</v>
       </c>
       <c r="R181" t="n">
-        <v>8.233747999999993</v>
+        <v>8.233747999999999</v>
       </c>
       <c r="S181" t="n">
         <v>0</v>
       </c>
       <c r="T181" t="n">
-        <v>8.233747999999991</v>
+        <v>8.233748000000002</v>
       </c>
       <c r="U181" t="n">
-        <v>8.233747999999999</v>
+        <v>8.233748000000002</v>
       </c>
       <c r="V181" t="n">
         <v>0.9727</v>
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="AK181" t="n">
-        <v>9.206447999999998</v>
+        <v>9.206448000000002</v>
       </c>
       <c r="AL181" t="n">
         <v>49.99999999999996</v>
@@ -22966,7 +22966,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>26.2081017000001</v>
+        <v>26.20810170000013</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -23008,7 +23008,7 @@
         <v>0</v>
       </c>
       <c r="Q182" t="n">
-        <v>23.9331017000001</v>
+        <v>23.93310170000013</v>
       </c>
       <c r="R182" t="n">
         <v>0</v>
@@ -23090,7 +23090,7 @@
         <v>2</v>
       </c>
       <c r="C183" t="n">
-        <v>80.52246170000011</v>
+        <v>80.52246170000014</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -23132,7 +23132,7 @@
         <v>0</v>
       </c>
       <c r="Q183" t="n">
-        <v>78.2474617000001</v>
+        <v>78.24746170000013</v>
       </c>
       <c r="R183" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>58.3566548</v>
+        <v>58.35665479999999</v>
       </c>
       <c r="F184" t="n">
         <v>84.423168</v>
@@ -23341,7 +23341,7 @@
         <v>174.675</v>
       </c>
       <c r="D185" t="n">
-        <v>15.64078148700003</v>
+        <v>15.64078148700005</v>
       </c>
       <c r="E185" t="n">
         <v>64.74514301300002</v>
@@ -23368,13 +23368,13 @@
         <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>10.37937029999991</v>
+        <v>10.37937029999988</v>
       </c>
       <c r="N185" t="n">
-        <v>15.64078148700004</v>
+        <v>15.64078148700006</v>
       </c>
       <c r="O185" t="n">
-        <v>6.388488213000016</v>
+        <v>6.388488213000023</v>
       </c>
       <c r="P185" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>32.40863999999996</v>
       </c>
       <c r="AC185" t="n">
-        <v>10.37937029999991</v>
+        <v>10.37937029999988</v>
       </c>
       <c r="AD185" t="n">
-        <v>22.02926970000006</v>
+        <v>22.02926970000008</v>
       </c>
       <c r="AE185" t="n">
-        <v>15.64078148700004</v>
+        <v>15.64078148700005</v>
       </c>
       <c r="AF185" t="n">
-        <v>6.388488213000016</v>
+        <v>6.388488213000023</v>
       </c>
       <c r="AG185" t="n">
-        <v>15.64078148700004</v>
+        <v>15.64078148700006</v>
       </c>
       <c r="AH185" t="n">
-        <v>6.388488213000016</v>
+        <v>6.388488213000023</v>
       </c>
       <c r="AI185" t="n">
         <v>0</v>
@@ -23465,10 +23465,10 @@
         <v>174.675</v>
       </c>
       <c r="D186" t="n">
-        <v>79.93165068700003</v>
+        <v>79.93165068700006</v>
       </c>
       <c r="E186" t="n">
-        <v>91.00479381300003</v>
+        <v>91.00479381300005</v>
       </c>
       <c r="F186" t="n">
         <v>90.87551999999999</v>
@@ -23589,7 +23589,7 @@
         <v>174.675</v>
       </c>
       <c r="D187" t="n">
-        <v>68.44968476700001</v>
+        <v>68.44968476700004</v>
       </c>
       <c r="E187" t="n">
         <v>93.83974573300003</v>
@@ -23613,7 +23613,7 @@
         <v>3.0672</v>
       </c>
       <c r="L187" t="n">
-        <v>28.99926199999999</v>
+        <v>28.999262</v>
       </c>
       <c r="M187" t="n">
         <v>0.3249999999999886</v>
@@ -23713,7 +23713,7 @@
         <v>174.675</v>
       </c>
       <c r="D188" t="n">
-        <v>45.38336796700003</v>
+        <v>45.38336796700005</v>
       </c>
       <c r="E188" t="n">
         <v>96.81725</v>
@@ -23746,10 +23746,10 @@
         <v>46.07170120000002</v>
       </c>
       <c r="O188" t="n">
-        <v>11.16025426699997</v>
+        <v>11.16025426699996</v>
       </c>
       <c r="P188" t="n">
-        <v>7.657764533000019</v>
+        <v>7.657764533000027</v>
       </c>
       <c r="Q188" t="n">
         <v>172.4</v>
@@ -23803,7 +23803,7 @@
         <v>46.07170120000002</v>
       </c>
       <c r="AH188" t="n">
-        <v>11.16025426699997</v>
+        <v>11.16025426699996</v>
       </c>
       <c r="AI188" t="n">
         <v>0</v>
@@ -23834,7 +23834,7 @@
         <v>8</v>
       </c>
       <c r="C189" t="n">
-        <v>118.084777967</v>
+        <v>118.0847779670001</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>45.38336796700003</v>
+        <v>45.38336796700005</v>
       </c>
       <c r="K189" t="n">
         <v>12.0274</v>
@@ -23879,13 +23879,13 @@
         <v>172.075</v>
       </c>
       <c r="R189" t="n">
-        <v>56.26522203299997</v>
+        <v>56.26522203299994</v>
       </c>
       <c r="S189" t="n">
         <v>0</v>
       </c>
       <c r="T189" t="n">
-        <v>56.26522203299999</v>
+        <v>56.26522203299994</v>
       </c>
       <c r="U189" t="n">
         <v>101.64859</v>
@@ -23930,7 +23930,7 @@
         <v>0</v>
       </c>
       <c r="AI189" t="n">
-        <v>56.26522203299997</v>
+        <v>56.26522203299994</v>
       </c>
       <c r="AJ189" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>9</v>
       </c>
       <c r="C190" t="n">
-        <v>16.92819646700003</v>
+        <v>16.92819646699986</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -23985,7 +23985,7 @@
         <v>11.93155</v>
       </c>
       <c r="L190" t="n">
-        <v>112.7631315</v>
+        <v>112.7631315000002</v>
       </c>
       <c r="M190" t="n">
         <v>0</v>
@@ -24012,7 +24012,7 @@
         <v>100.8315815</v>
       </c>
       <c r="U190" t="n">
-        <v>100.8315815</v>
+        <v>100.8315814999998</v>
       </c>
       <c r="V190" t="n">
         <v>11.93155</v>
@@ -24054,22 +24054,22 @@
         <v>0</v>
       </c>
       <c r="AI190" t="n">
-        <v>100.8315815</v>
+        <v>100.8315815000002</v>
       </c>
       <c r="AJ190" t="n">
         <v>0</v>
       </c>
       <c r="AK190" t="n">
-        <v>112.7631315</v>
+        <v>112.7631314999998</v>
       </c>
       <c r="AL190" t="n">
-        <v>50</v>
+        <v>50.00000000000009</v>
       </c>
       <c r="AM190" t="n">
         <v>50</v>
       </c>
       <c r="AN190" t="n">
-        <v>50</v>
+        <v>50.00000000000008</v>
       </c>
     </row>
     <row r="191">
@@ -24082,7 +24082,7 @@
         <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v>2.275000000000011</v>
+        <v>2.275</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -24109,7 +24109,7 @@
         <v>8.18275</v>
       </c>
       <c r="L191" t="n">
-        <v>22.51094646700005</v>
+        <v>22.51094646699988</v>
       </c>
       <c r="M191" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         <v>0</v>
       </c>
       <c r="Q191" t="n">
-        <v>14.32819646700003</v>
+        <v>14.32819646699986</v>
       </c>
       <c r="R191" t="n">
         <v>69.13801799999999</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="T191" t="n">
-        <v>69.13801799999997</v>
+        <v>69.13801799999999</v>
       </c>
       <c r="U191" t="n">
-        <v>123.947839533</v>
+        <v>123.9478395330001</v>
       </c>
       <c r="V191" t="n">
         <v>8.18275</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="AI191" t="n">
-        <v>14.32819646700004</v>
+        <v>14.32819646699986</v>
       </c>
       <c r="AJ191" t="n">
         <v>0</v>
       </c>
       <c r="AK191" t="n">
-        <v>132.1305895329999</v>
+        <v>132.1305895330001</v>
       </c>
       <c r="AL191" t="n">
-        <v>10.36202431128416</v>
+        <v>10.36202431128403</v>
       </c>
       <c r="AM191" t="n">
         <v>50</v>
       </c>
       <c r="AN191" t="n">
-        <v>14.55685648841462</v>
+        <v>14.55685648841451</v>
       </c>
     </row>
     <row r="192">
@@ -24330,7 +24330,7 @@
         <v>12</v>
       </c>
       <c r="C193" t="n">
-        <v>1.625000000000028</v>
+        <v>1.625</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>21.30764800000003</v>
+        <v>21.307648</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="Q194" t="n">
-        <v>19.03264800000002</v>
+        <v>19.03264799999999</v>
       </c>
       <c r="R194" t="n">
         <v>0</v>
@@ -24581,7 +24581,7 @@
         <v>174.675</v>
       </c>
       <c r="D195" t="n">
-        <v>55.91832767999998</v>
+        <v>55.91832767999995</v>
       </c>
       <c r="E195" t="n">
         <v>82.20818032</v>
@@ -24611,10 +24611,10 @@
         <v>153.692352</v>
       </c>
       <c r="N195" t="n">
-        <v>55.91832768</v>
+        <v>55.91832767999998</v>
       </c>
       <c r="O195" t="n">
-        <v>22.83988032</v>
+        <v>22.83988031999999</v>
       </c>
       <c r="P195" t="n">
         <v>0</v>
@@ -24659,19 +24659,19 @@
         <v>153.692352</v>
       </c>
       <c r="AD195" t="n">
-        <v>78.75820800000002</v>
+        <v>78.758208</v>
       </c>
       <c r="AE195" t="n">
-        <v>55.91832768000001</v>
+        <v>55.91832768</v>
       </c>
       <c r="AF195" t="n">
-        <v>22.83988032000001</v>
+        <v>22.83988032</v>
       </c>
       <c r="AG195" t="n">
-        <v>55.91832768</v>
+        <v>55.91832767999998</v>
       </c>
       <c r="AH195" t="n">
-        <v>22.83988032</v>
+        <v>22.83988031999999</v>
       </c>
       <c r="AI195" t="n">
         <v>0</v>
@@ -24729,7 +24729,7 @@
         <v>0</v>
       </c>
       <c r="L196" t="n">
-        <v>42.83356328000001</v>
+        <v>42.83356328000002</v>
       </c>
       <c r="M196" t="n">
         <v>0.325</v>
@@ -24738,10 +24738,10 @@
         <v>160.6690410400001</v>
       </c>
       <c r="O196" t="n">
-        <v>22.79181968</v>
+        <v>22.79181968000001</v>
       </c>
       <c r="P196" t="n">
-        <v>42.83356328000001</v>
+        <v>42.83356328000002</v>
       </c>
       <c r="Q196" t="n">
         <v>172.4</v>
@@ -24795,7 +24795,7 @@
         <v>160.6690410400001</v>
       </c>
       <c r="AH196" t="n">
-        <v>22.79181968</v>
+        <v>22.79181968000001</v>
       </c>
       <c r="AI196" t="n">
         <v>0</v>
@@ -24853,19 +24853,19 @@
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>267.7602887200001</v>
+        <v>267.76028872</v>
       </c>
       <c r="M197" t="n">
         <v>0.325</v>
       </c>
       <c r="N197" t="n">
-        <v>43.41263127999997</v>
+        <v>43.41263128</v>
       </c>
       <c r="O197" t="n">
         <v>0</v>
       </c>
       <c r="P197" t="n">
-        <v>267.7602887200001</v>
+        <v>267.76028872</v>
       </c>
       <c r="Q197" t="n">
         <v>172.4</v>
@@ -24916,7 +24916,7 @@
         <v>90.24014680000001</v>
       </c>
       <c r="AG197" t="n">
-        <v>43.41263127999997</v>
+        <v>43.41263128</v>
       </c>
       <c r="AH197" t="n">
         <v>0</v>
@@ -25228,7 +25228,7 @@
         <v>214.0400260000001</v>
       </c>
       <c r="M200" t="n">
-        <v>0.3250000000000171</v>
+        <v>0.3249999999999886</v>
       </c>
       <c r="N200" t="n">
         <v>25.93206199999995</v>
@@ -25276,7 +25276,7 @@
         <v>166.04352</v>
       </c>
       <c r="AC200" t="n">
-        <v>0.3250000000000171</v>
+        <v>0.3249999999999886</v>
       </c>
       <c r="AD200" t="n">
         <v>165.71852</v>
@@ -25285,7 +25285,7 @@
         <v>117.6601492</v>
       </c>
       <c r="AF200" t="n">
-        <v>48.0583708</v>
+        <v>48.05837080000001</v>
       </c>
       <c r="AG200" t="n">
         <v>25.93206199999995</v>
@@ -25361,7 +25361,7 @@
         <v>8.18274999999992</v>
       </c>
       <c r="P201" t="n">
-        <v>15.56102784000008</v>
+        <v>15.56102784000007</v>
       </c>
       <c r="Q201" t="n">
         <v>172.4</v>
@@ -25748,7 +25748,7 @@
         <v>36.62744600000002</v>
       </c>
       <c r="U204" t="n">
-        <v>36.627446</v>
+        <v>36.62744599999999</v>
       </c>
       <c r="V204" t="n">
         <v>4.33455</v>
@@ -25796,7 +25796,7 @@
         <v>0</v>
       </c>
       <c r="AK204" t="n">
-        <v>40.961996</v>
+        <v>40.96199599999999</v>
       </c>
       <c r="AL204" t="n">
         <v>50.00000000000004</v>
@@ -25872,7 +25872,7 @@
         <v>8.233747999999991</v>
       </c>
       <c r="U205" t="n">
-        <v>8.233748</v>
+        <v>8.233748000000002</v>
       </c>
       <c r="V205" t="n">
         <v>0.9727</v>
@@ -25920,7 +25920,7 @@
         <v>0</v>
       </c>
       <c r="AK205" t="n">
-        <v>9.206448</v>
+        <v>9.206448000000002</v>
       </c>
       <c r="AL205" t="n">
         <v>49.99999999999996</v>
@@ -26849,7 +26849,7 @@
         <v>8.18275</v>
       </c>
       <c r="P213" t="n">
-        <v>0.6476966400000101</v>
+        <v>0.6476966400000066</v>
       </c>
       <c r="Q213" t="n">
         <v>172.4</v>
@@ -27079,13 +27079,13 @@
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>10.00117986000006</v>
+        <v>10.00117986000005</v>
       </c>
       <c r="K215" t="n">
         <v>8.18275</v>
       </c>
       <c r="L215" t="n">
-        <v>77.320768</v>
+        <v>77.32076799999999</v>
       </c>
       <c r="M215" t="n">
         <v>0</v>
@@ -27103,7 +27103,7 @@
         <v>171.75</v>
       </c>
       <c r="R215" t="n">
-        <v>59.13683813999994</v>
+        <v>59.13683813999995</v>
       </c>
       <c r="S215" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>77.320768</v>
       </c>
       <c r="AL215" t="n">
-        <v>50</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="AM215" t="n">
         <v>50</v>
       </c>
       <c r="AN215" t="n">
-        <v>50</v>
+        <v>49.99999999999999</v>
       </c>
     </row>
     <row r="216">
@@ -27182,7 +27182,7 @@
         <v>11</v>
       </c>
       <c r="C216" t="n">
-        <v>77.93571586000013</v>
+        <v>77.93571586000014</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -27333,7 +27333,7 @@
         <v>0.9727</v>
       </c>
       <c r="L217" t="n">
-        <v>9.206447999999998</v>
+        <v>9.206448</v>
       </c>
       <c r="M217" t="n">
         <v>0</v>
@@ -27348,7 +27348,7 @@
         <v>0</v>
       </c>
       <c r="Q217" t="n">
-        <v>75.33571586000012</v>
+        <v>75.33571586000014</v>
       </c>
       <c r="R217" t="n">
         <v>8.233747999999828</v>
@@ -27802,7 +27802,7 @@
         <v>4</v>
       </c>
       <c r="C221" t="n">
-        <v>81.89751186000035</v>
+        <v>81.89751186000034</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -27844,7 +27844,7 @@
         <v>0</v>
       </c>
       <c r="Q221" t="n">
-        <v>79.62251186000034</v>
+        <v>79.62251186000033</v>
       </c>
       <c r="R221" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="T223" t="n">
-        <v>25.93206200000002</v>
+        <v>25.932062</v>
       </c>
       <c r="U223" t="n">
         <v>25.93206199999998</v>
@@ -28174,7 +28174,7 @@
         <v>7</v>
       </c>
       <c r="C224" t="n">
-        <v>69.60599986000017</v>
+        <v>69.60599986000021</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -28228,7 +28228,7 @@
         <v>69.13801800000016</v>
       </c>
       <c r="U224" t="n">
-        <v>69.13801800000003</v>
+        <v>69.13801800000002</v>
       </c>
       <c r="V224" t="n">
         <v>8.18275</v>
@@ -28276,7 +28276,7 @@
         <v>0</v>
       </c>
       <c r="AK224" t="n">
-        <v>77.32076800000003</v>
+        <v>77.32076800000002</v>
       </c>
       <c r="AL224" t="n">
         <v>50.00000000000009</v>
@@ -28298,7 +28298,7 @@
         <v>8</v>
       </c>
       <c r="C225" t="n">
-        <v>2.274999999999987</v>
+        <v>2.274999999999952</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -28325,7 +28325,7 @@
         <v>12.0274</v>
       </c>
       <c r="L225" t="n">
-        <v>79.03339986000024</v>
+        <v>79.03339986000029</v>
       </c>
       <c r="M225" t="n">
         <v>0</v>
@@ -28340,7 +28340,7 @@
         <v>0</v>
       </c>
       <c r="Q225" t="n">
-        <v>67.00599986000016</v>
+        <v>67.0059998600002</v>
       </c>
       <c r="R225" t="n">
         <v>101.64859</v>
@@ -28352,7 +28352,7 @@
         <v>101.64859</v>
       </c>
       <c r="U225" t="n">
-        <v>136.2911801399998</v>
+        <v>136.2911801399997</v>
       </c>
       <c r="V225" t="n">
         <v>12.0274</v>
@@ -28394,22 +28394,22 @@
         <v>0</v>
       </c>
       <c r="AI225" t="n">
-        <v>67.00599986000024</v>
+        <v>67.00599986000029</v>
       </c>
       <c r="AJ225" t="n">
         <v>0</v>
       </c>
       <c r="AK225" t="n">
-        <v>148.3185801399998</v>
+        <v>148.3185801399997</v>
       </c>
       <c r="AL225" t="n">
-        <v>32.95963075336325</v>
+        <v>32.95963075336327</v>
       </c>
       <c r="AM225" t="n">
         <v>50</v>
       </c>
       <c r="AN225" t="n">
-        <v>34.76257381176106</v>
+        <v>34.76257381176108</v>
       </c>
     </row>
     <row r="226">
@@ -28449,7 +28449,7 @@
         <v>11.93155</v>
       </c>
       <c r="L226" t="n">
-        <v>11.93154999999994</v>
+        <v>11.93154999999993</v>
       </c>
       <c r="M226" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="AK226" t="n">
-        <v>213.594713</v>
+        <v>213.5947130000001</v>
       </c>
       <c r="AL226" t="n">
         <v>0</v>
@@ -28546,7 +28546,7 @@
         <v>10</v>
       </c>
       <c r="C227" t="n">
-        <v>1.625000000000003</v>
+        <v>1.624999999999981</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>8.18275</v>
       </c>
       <c r="L227" t="n">
-        <v>8.182749999999929</v>
+        <v>8.182749999999931</v>
       </c>
       <c r="M227" t="n">
         <v>0</v>
@@ -28697,7 +28697,7 @@
         <v>4.33455</v>
       </c>
       <c r="L228" t="n">
-        <v>4.33455</v>
+        <v>4.334549999999995</v>
       </c>
       <c r="M228" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0.9727</v>
       </c>
       <c r="L229" t="n">
-        <v>0.9726999999999556</v>
+        <v>0.9726999999999554</v>
       </c>
       <c r="M229" t="n">
         <v>0</v>
@@ -28924,7 +28924,7 @@
         <v>177.0382784800003</v>
       </c>
       <c r="E230" t="n">
-        <v>91.1635595200006</v>
+        <v>91.16355952000067</v>
       </c>
       <c r="F230" t="n">
         <v>423.374688</v>
@@ -28951,10 +28951,10 @@
         <v>174.025</v>
       </c>
       <c r="N230" t="n">
-        <v>177.0382784800002</v>
+        <v>177.0382784800003</v>
       </c>
       <c r="O230" t="n">
-        <v>72.31140952000059</v>
+        <v>72.31140952000067</v>
       </c>
       <c r="P230" t="n">
         <v>0</v>
@@ -29008,10 +29008,10 @@
         <v>72.31140951999998</v>
       </c>
       <c r="AG230" t="n">
-        <v>177.0382784800002</v>
+        <v>177.0382784800003</v>
       </c>
       <c r="AH230" t="n">
-        <v>72.31140952000059</v>
+        <v>72.31140952000067</v>
       </c>
       <c r="AI230" t="n">
         <v>0</v>
@@ -29069,7 +29069,7 @@
         <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>14.27234312000061</v>
+        <v>14.27234312000068</v>
       </c>
       <c r="M231" t="n">
         <v>0.3249999999999886</v>
@@ -29078,10 +29078,10 @@
         <v>68.81805640000002</v>
       </c>
       <c r="O231" t="n">
-        <v>13.8364404799994</v>
+        <v>13.83644047999933</v>
       </c>
       <c r="P231" t="n">
-        <v>14.27234312000061</v>
+        <v>14.27234312000068</v>
       </c>
       <c r="Q231" t="n">
         <v>172.4</v>
@@ -29135,7 +29135,7 @@
         <v>68.81805640000002</v>
       </c>
       <c r="AH231" t="n">
-        <v>13.8364404799994</v>
+        <v>13.83644047999933</v>
       </c>
       <c r="AI231" t="n">
         <v>0</v>
@@ -29193,19 +29193,19 @@
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>65.6690628800003</v>
+        <v>65.66906288000038</v>
       </c>
       <c r="M232" t="n">
         <v>0.3250000000000028</v>
       </c>
       <c r="N232" t="n">
-        <v>14.14366511999968</v>
+        <v>14.1436651199996</v>
       </c>
       <c r="O232" t="n">
         <v>0</v>
       </c>
       <c r="P232" t="n">
-        <v>65.6690628800003</v>
+        <v>65.66906288000038</v>
       </c>
       <c r="Q232" t="n">
         <v>172.4</v>
@@ -29256,7 +29256,7 @@
         <v>23.14569111999999</v>
       </c>
       <c r="AG232" t="n">
-        <v>14.14366511999968</v>
+        <v>14.1436651199996</v>
       </c>
       <c r="AH232" t="n">
         <v>0</v>
@@ -29317,7 +29317,7 @@
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>159.870103999999</v>
+        <v>159.8701039999989</v>
       </c>
       <c r="M233" t="n">
         <v>0.3249999999999886</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="P233" t="n">
-        <v>159.870103999999</v>
+        <v>159.8701039999989</v>
       </c>
       <c r="Q233" t="n">
         <v>172.4</v>
@@ -30034,7 +30034,7 @@
         <v>10</v>
       </c>
       <c r="C239" t="n">
-        <v>92.94379249999993</v>
+        <v>92.94379249999994</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
@@ -30088,7 +30088,7 @@
         <v>69.13801799999999</v>
       </c>
       <c r="U239" t="n">
-        <v>69.138018</v>
+        <v>69.13801799999999</v>
       </c>
       <c r="V239" t="n">
         <v>8.18275</v>
@@ -30136,7 +30136,7 @@
         <v>0</v>
       </c>
       <c r="AK239" t="n">
-        <v>77.320768</v>
+        <v>77.32076799999999</v>
       </c>
       <c r="AL239" t="n">
         <v>49.99999999999999</v>
@@ -30200,7 +30200,7 @@
         <v>0</v>
       </c>
       <c r="Q240" t="n">
-        <v>90.34379249999992</v>
+        <v>90.34379249999994</v>
       </c>
       <c r="R240" t="n">
         <v>36.62744599999999</v>
@@ -30212,7 +30212,7 @@
         <v>36.62744599999999</v>
       </c>
       <c r="U240" t="n">
-        <v>36.627446</v>
+        <v>36.62744599999999</v>
       </c>
       <c r="V240" t="n">
         <v>4.33455</v>
@@ -30260,7 +30260,7 @@
         <v>0</v>
       </c>
       <c r="AK240" t="n">
-        <v>40.961996</v>
+        <v>40.96199599999999</v>
       </c>
       <c r="AL240" t="n">
         <v>49.99999999999999</v>
@@ -30336,7 +30336,7 @@
         <v>8.233747999999991</v>
       </c>
       <c r="U241" t="n">
-        <v>8.233748</v>
+        <v>8.233747999999999</v>
       </c>
       <c r="V241" t="n">
         <v>0.9727</v>
@@ -30384,7 +30384,7 @@
         <v>0</v>
       </c>
       <c r="AK241" t="n">
-        <v>9.206448</v>
+        <v>9.206447999999998</v>
       </c>
       <c r="AL241" t="n">
         <v>49.99999999999994</v>
@@ -30530,7 +30530,7 @@
         <v>2</v>
       </c>
       <c r="C243" t="n">
-        <v>117.3065984999999</v>
+        <v>117.3065985</v>
       </c>
       <c r="D243" t="n">
         <v>0</v>
@@ -30738,7 +30738,7 @@
         <v>53.59411849999994</v>
       </c>
       <c r="AE244" t="n">
-        <v>38.05182413499995</v>
+        <v>38.05182413499996</v>
       </c>
       <c r="AF244" t="n">
         <v>15.54229436499998</v>
@@ -30905,7 +30905,7 @@
         <v>174.675</v>
       </c>
       <c r="D246" t="n">
-        <v>203.581667175</v>
+        <v>203.5816671749999</v>
       </c>
       <c r="E246" t="n">
         <v>105</v>
@@ -31522,7 +31522,7 @@
         <v>10</v>
       </c>
       <c r="C251" t="n">
-        <v>107.3005224999994</v>
+        <v>107.3005224999995</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
@@ -31543,13 +31543,13 @@
         <v>0</v>
       </c>
       <c r="J251" t="n">
-        <v>2.413540499999975</v>
+        <v>2.413540499999971</v>
       </c>
       <c r="K251" t="n">
         <v>8.18275</v>
       </c>
       <c r="L251" t="n">
-        <v>77.32076800000016</v>
+        <v>77.32076800000003</v>
       </c>
       <c r="M251" t="n">
         <v>0</v>
@@ -31576,7 +31576,7 @@
         <v>66.72447750000003</v>
       </c>
       <c r="U251" t="n">
-        <v>69.13801799999985</v>
+        <v>69.13801799999996</v>
       </c>
       <c r="V251" t="n">
         <v>8.18275</v>
@@ -31618,22 +31618,22 @@
         <v>0</v>
       </c>
       <c r="AI251" t="n">
-        <v>66.72447750000018</v>
+        <v>66.72447750000006</v>
       </c>
       <c r="AJ251" t="n">
         <v>0</v>
       </c>
       <c r="AK251" t="n">
-        <v>77.32076799999984</v>
+        <v>77.32076799999996</v>
       </c>
       <c r="AL251" t="n">
-        <v>50.00000000000011</v>
+        <v>50.00000000000002</v>
       </c>
       <c r="AM251" t="n">
         <v>50</v>
       </c>
       <c r="AN251" t="n">
-        <v>50.0000000000001</v>
+        <v>50.00000000000002</v>
       </c>
     </row>
     <row r="252">
@@ -31646,7 +31646,7 @@
         <v>11</v>
       </c>
       <c r="C252" t="n">
-        <v>70.34807649999939</v>
+        <v>70.34807649999951</v>
       </c>
       <c r="D252" t="n">
         <v>0</v>
@@ -31688,7 +31688,7 @@
         <v>0</v>
       </c>
       <c r="Q252" t="n">
-        <v>104.7005224999994</v>
+        <v>104.7005224999995</v>
       </c>
       <c r="R252" t="n">
         <v>36.62744600000002</v>
@@ -31700,7 +31700,7 @@
         <v>36.62744600000002</v>
       </c>
       <c r="U252" t="n">
-        <v>36.627446</v>
+        <v>36.62744599999999</v>
       </c>
       <c r="V252" t="n">
         <v>4.33455</v>
@@ -31748,7 +31748,7 @@
         <v>0</v>
       </c>
       <c r="AK252" t="n">
-        <v>40.961996</v>
+        <v>40.96199599999999</v>
       </c>
       <c r="AL252" t="n">
         <v>50.00000000000004</v>
@@ -31770,7 +31770,7 @@
         <v>12</v>
       </c>
       <c r="C253" t="n">
-        <v>61.7893284999994</v>
+        <v>61.78932849999951</v>
       </c>
       <c r="D253" t="n">
         <v>0</v>
@@ -31812,7 +31812,7 @@
         <v>0</v>
       </c>
       <c r="Q253" t="n">
-        <v>67.74807649999939</v>
+        <v>67.7480764999995</v>
       </c>
       <c r="R253" t="n">
         <v>8.233747999999991</v>
@@ -31824,7 +31824,7 @@
         <v>8.233747999999984</v>
       </c>
       <c r="U253" t="n">
-        <v>8.233747999999999</v>
+        <v>8.233747999999997</v>
       </c>
       <c r="V253" t="n">
         <v>0.9727</v>
@@ -31872,7 +31872,7 @@
         <v>0</v>
       </c>
       <c r="AK253" t="n">
-        <v>9.206447999999998</v>
+        <v>9.206447999999996</v>
       </c>
       <c r="AL253" t="n">
         <v>49.99999999999996</v>
@@ -31894,7 +31894,7 @@
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>61.4643284999994</v>
+        <v>61.46432849999952</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -31936,7 +31936,7 @@
         <v>0</v>
       </c>
       <c r="Q254" t="n">
-        <v>59.18932849999941</v>
+        <v>59.18932849999952</v>
       </c>
       <c r="R254" t="n">
         <v>0</v>
@@ -32018,7 +32018,7 @@
         <v>2</v>
       </c>
       <c r="C255" t="n">
-        <v>61.13932849999941</v>
+        <v>61.13932849999952</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
@@ -32060,7 +32060,7 @@
         <v>0</v>
       </c>
       <c r="Q255" t="n">
-        <v>58.8643284999994</v>
+        <v>58.86432849999952</v>
       </c>
       <c r="R255" t="n">
         <v>0</v>
@@ -32142,7 +32142,7 @@
         <v>3</v>
       </c>
       <c r="C256" t="n">
-        <v>60.81432849999941</v>
+        <v>60.81432849999952</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
@@ -32184,7 +32184,7 @@
         <v>0</v>
       </c>
       <c r="Q256" t="n">
-        <v>58.53932849999941</v>
+        <v>58.53932849999952</v>
       </c>
       <c r="R256" t="n">
         <v>0</v>
@@ -32266,7 +32266,7 @@
         <v>4</v>
       </c>
       <c r="C257" t="n">
-        <v>60.4893284999994</v>
+        <v>60.48932849999952</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -32308,7 +32308,7 @@
         <v>0</v>
       </c>
       <c r="Q257" t="n">
-        <v>58.2143284999994</v>
+        <v>58.21432849999952</v>
       </c>
       <c r="R257" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>5</v>
       </c>
       <c r="C258" t="n">
-        <v>60.16432849999941</v>
+        <v>60.16432849999952</v>
       </c>
       <c r="D258" t="n">
         <v>0</v>
@@ -32432,7 +32432,7 @@
         <v>0</v>
       </c>
       <c r="Q258" t="n">
-        <v>57.88932849999941</v>
+        <v>57.88932849999952</v>
       </c>
       <c r="R258" t="n">
         <v>0</v>
@@ -32514,7 +32514,7 @@
         <v>6</v>
       </c>
       <c r="C259" t="n">
-        <v>68.61933049999939</v>
+        <v>68.61933049999953</v>
       </c>
       <c r="D259" t="n">
         <v>0</v>
@@ -32556,7 +32556,7 @@
         <v>0</v>
       </c>
       <c r="Q259" t="n">
-        <v>92.27639249999943</v>
+        <v>92.27639249999955</v>
       </c>
       <c r="R259" t="n">
         <v>25.932062</v>
@@ -32638,7 +32638,7 @@
         <v>7</v>
       </c>
       <c r="C260" t="n">
-        <v>40.0839924999994</v>
+        <v>40.08399249999955</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -32680,7 +32680,7 @@
         <v>0</v>
       </c>
       <c r="Q260" t="n">
-        <v>106.9470104999994</v>
+        <v>106.9470104999995</v>
       </c>
       <c r="R260" t="n">
         <v>69.138018</v>
@@ -32789,7 +32789,7 @@
         <v>12.0274</v>
       </c>
       <c r="L261" t="n">
-        <v>49.5113924999994</v>
+        <v>49.51139249999954</v>
       </c>
       <c r="M261" t="n">
         <v>0</v>
@@ -32804,7 +32804,7 @@
         <v>0</v>
       </c>
       <c r="Q261" t="n">
-        <v>37.4839924999994</v>
+        <v>37.48399249999954</v>
       </c>
       <c r="R261" t="n">
         <v>101.64859</v>
@@ -32816,7 +32816,7 @@
         <v>101.64859</v>
       </c>
       <c r="U261" t="n">
-        <v>165.8131875000006</v>
+        <v>165.8131875000005</v>
       </c>
       <c r="V261" t="n">
         <v>12.0274</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="AI261" t="n">
-        <v>37.4839924999994</v>
+        <v>37.48399249999955</v>
       </c>
       <c r="AJ261" t="n">
         <v>0</v>
       </c>
       <c r="AK261" t="n">
-        <v>177.8405875000006</v>
+        <v>177.8405875000005</v>
       </c>
       <c r="AL261" t="n">
-        <v>18.4380287518004</v>
+        <v>18.43802875180047</v>
       </c>
       <c r="AM261" t="n">
         <v>50</v>
       </c>
       <c r="AN261" t="n">
-        <v>21.77741865278649</v>
+        <v>21.77741865278655</v>
       </c>
     </row>
     <row r="262">
@@ -33258,7 +33258,7 @@
         <v>12</v>
       </c>
       <c r="C265" t="n">
-        <v>0.9749999999999158</v>
+        <v>0.9749999999996879</v>
       </c>
       <c r="D265" t="n">
         <v>0</v>
@@ -33270,7 +33270,7 @@
         <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>0.3250000000000854</v>
+        <v>0.3250000000003189</v>
       </c>
       <c r="H265" t="n">
         <v>0.3249999999999996</v>
@@ -33394,10 +33394,10 @@
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>0.3249999999999141</v>
+        <v>0.3249999999996807</v>
       </c>
       <c r="H266" t="n">
-        <v>0.3249999999999141</v>
+        <v>0.3249999999996807</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -33518,7 +33518,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>0.3250000000000004</v>
+        <v>0.3250000000000002</v>
       </c>
       <c r="H267" t="n">
         <v>0.325</v>
@@ -33645,7 +33645,7 @@
         <v>0.3250000000000013</v>
       </c>
       <c r="H268" t="n">
-        <v>0.3249999999999996</v>
+        <v>0.3249999999999998</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -33754,7 +33754,7 @@
         <v>4</v>
       </c>
       <c r="C269" t="n">
-        <v>97.94549599999999</v>
+        <v>97.94549599999996</v>
       </c>
       <c r="D269" t="n">
         <v>0</v>
@@ -33766,10 +33766,10 @@
         <v>98.27049599999998</v>
       </c>
       <c r="G269" t="n">
-        <v>0.3249999999999983</v>
+        <v>0.3249999999999986</v>
       </c>
       <c r="H269" t="n">
-        <v>0.3249999999999983</v>
+        <v>0.3249999999999986</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -33796,7 +33796,7 @@
         <v>0</v>
       </c>
       <c r="Q269" t="n">
-        <v>95.67049599999999</v>
+        <v>95.67049599999996</v>
       </c>
       <c r="R269" t="n">
         <v>0</v>
@@ -33884,7 +33884,7 @@
         <v>2.598866959999981</v>
       </c>
       <c r="E270" t="n">
-        <v>17.46217904000022</v>
+        <v>17.4621790400002</v>
       </c>
       <c r="F270" t="n">
         <v>80.71487999999999</v>
@@ -33908,13 +33908,13 @@
         <v>0</v>
       </c>
       <c r="M270" t="n">
-        <v>77.05450400000002</v>
+        <v>77.05450400000005</v>
       </c>
       <c r="N270" t="n">
-        <v>2.598866959999976</v>
+        <v>2.598866959999961</v>
       </c>
       <c r="O270" t="n">
-        <v>1.06150903999999</v>
+        <v>1.061509039999984</v>
       </c>
       <c r="P270" t="n">
         <v>0</v>
@@ -33956,22 +33956,22 @@
         <v>80.71487999999999</v>
       </c>
       <c r="AC270" t="n">
-        <v>77.05450400000002</v>
+        <v>77.05450400000005</v>
       </c>
       <c r="AD270" t="n">
-        <v>3.660375999999971</v>
+        <v>3.660375999999943</v>
       </c>
       <c r="AE270" t="n">
-        <v>2.598866959999979</v>
+        <v>2.598866959999959</v>
       </c>
       <c r="AF270" t="n">
-        <v>1.061509039999992</v>
+        <v>1.061509039999983</v>
       </c>
       <c r="AG270" t="n">
-        <v>2.598866959999976</v>
+        <v>2.598866959999961</v>
       </c>
       <c r="AH270" t="n">
-        <v>1.06150903999999</v>
+        <v>1.061509039999984</v>
       </c>
       <c r="AI270" t="n">
         <v>0</v>
@@ -34008,7 +34008,7 @@
         <v>65.81426295999998</v>
       </c>
       <c r="E271" t="n">
-        <v>50.80732104000021</v>
+        <v>50.8073210400002</v>
       </c>
       <c r="F271" t="n">
         <v>125.8848</v>
@@ -34029,7 +34029,7 @@
         <v>3.0672</v>
       </c>
       <c r="L271" t="n">
-        <v>28.99926200000001</v>
+        <v>28.999262</v>
       </c>
       <c r="M271" t="n">
         <v>0.3249999999999744</v>
@@ -34256,7 +34256,7 @@
         <v>17.79214184</v>
       </c>
       <c r="E273" t="n">
-        <v>80.74041216000025</v>
+        <v>80.74041216000023</v>
       </c>
       <c r="F273" t="n">
         <v>41.70268800000002</v>
@@ -34498,13 +34498,13 @@
         <v>10</v>
       </c>
       <c r="C275" t="n">
-        <v>21.84754233999983</v>
+        <v>21.84754233999984</v>
       </c>
       <c r="D275" t="n">
         <v>0</v>
       </c>
       <c r="E275" t="n">
-        <v>60.62611216000025</v>
+        <v>60.62611216000024</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -34552,7 +34552,7 @@
         <v>69.13801799999999</v>
       </c>
       <c r="U275" t="n">
-        <v>69.138018</v>
+        <v>69.13801799999999</v>
       </c>
       <c r="V275" t="n">
         <v>8.18275</v>
@@ -34600,7 +34600,7 @@
         <v>0</v>
       </c>
       <c r="AK275" t="n">
-        <v>77.320768</v>
+        <v>77.32076799999999</v>
       </c>
       <c r="AL275" t="n">
         <v>49.99999999999999</v>
@@ -34622,13 +34622,13 @@
         <v>11</v>
       </c>
       <c r="C276" t="n">
-        <v>2.275000000000002</v>
+        <v>2.275000000000001</v>
       </c>
       <c r="D276" t="n">
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>56.29156216000024</v>
+        <v>56.29156216000023</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
@@ -34649,7 +34649,7 @@
         <v>4.33455</v>
       </c>
       <c r="L276" t="n">
-        <v>23.58209233999985</v>
+        <v>23.58209233999986</v>
       </c>
       <c r="M276" t="n">
         <v>0</v>
@@ -34664,7 +34664,7 @@
         <v>0</v>
       </c>
       <c r="Q276" t="n">
-        <v>19.24754233999984</v>
+        <v>19.24754233999985</v>
       </c>
       <c r="R276" t="n">
         <v>36.62744599999998</v>
@@ -34727,13 +34727,13 @@
         <v>58.34189966000014</v>
       </c>
       <c r="AL276" t="n">
-        <v>26.27475355502515</v>
+        <v>26.27475355502516</v>
       </c>
       <c r="AM276" t="n">
         <v>50</v>
       </c>
       <c r="AN276" t="n">
-        <v>28.78533109079918</v>
+        <v>28.78533109079919</v>
       </c>
     </row>
     <row r="277">
@@ -34752,7 +34752,7 @@
         <v>0</v>
       </c>
       <c r="E277" t="n">
-        <v>55.31886216000024</v>
+        <v>55.31886216000023</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
@@ -34773,7 +34773,7 @@
         <v>0.9727</v>
       </c>
       <c r="L277" t="n">
-        <v>0.9727</v>
+        <v>0.9726999999999996</v>
       </c>
       <c r="M277" t="n">
         <v>0</v>
@@ -34870,7 +34870,7 @@
         <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>20.85591199999997</v>
+        <v>20.85591199999998</v>
       </c>
       <c r="D278" t="n">
         <v>0</v>
@@ -34912,7 +34912,7 @@
         <v>0</v>
       </c>
       <c r="Q278" t="n">
-        <v>18.58091199999997</v>
+        <v>18.58091199999998</v>
       </c>
       <c r="R278" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="Q284" t="n">
-        <v>106.504226</v>
+        <v>106.5042260000001</v>
       </c>
       <c r="R284" t="n">
         <v>69.13801799999999</v>
@@ -35668,7 +35668,7 @@
         <v>69.13801799999999</v>
       </c>
       <c r="U284" t="n">
-        <v>69.138018</v>
+        <v>69.13801799999999</v>
       </c>
       <c r="V284" t="n">
         <v>8.18275</v>
@@ -35716,7 +35716,7 @@
         <v>0</v>
       </c>
       <c r="AK284" t="n">
-        <v>77.320768</v>
+        <v>77.32076799999999</v>
       </c>
       <c r="AL284" t="n">
         <v>49.99999999999999</v>
@@ -35765,7 +35765,7 @@
         <v>12.0274</v>
       </c>
       <c r="L285" t="n">
-        <v>49.06860800000006</v>
+        <v>49.06860800000005</v>
       </c>
       <c r="M285" t="n">
         <v>0</v>
@@ -35792,7 +35792,7 @@
         <v>101.64859</v>
       </c>
       <c r="U285" t="n">
-        <v>166.2559719999999</v>
+        <v>166.255972</v>
       </c>
       <c r="V285" t="n">
         <v>12.0274</v>
@@ -35840,7 +35840,7 @@
         <v>0</v>
       </c>
       <c r="AK285" t="n">
-        <v>178.2833719999999</v>
+        <v>178.283372</v>
       </c>
       <c r="AL285" t="n">
         <v>18.22022715711062</v>
@@ -35986,7 +35986,7 @@
         <v>10</v>
       </c>
       <c r="C287" t="n">
-        <v>1.625000000000001</v>
+        <v>1.62500000000001</v>
       </c>
       <c r="D287" t="n">
         <v>0</v>
@@ -36234,7 +36234,7 @@
         <v>12</v>
       </c>
       <c r="C289" t="n">
-        <v>0.9750000000000021</v>
+        <v>0.9750000000000107</v>
       </c>
       <c r="D289" t="n">
         <v>0</v>
@@ -36261,7 +36261,7 @@
         <v>0.9727</v>
       </c>
       <c r="L289" t="n">
-        <v>0.9727000000000089</v>
+        <v>0.9727000000000086</v>
       </c>
       <c r="M289" t="n">
         <v>0</v>
@@ -36482,7 +36482,7 @@
         <v>2</v>
       </c>
       <c r="C291" t="n">
-        <v>0.3250000000000013</v>
+        <v>0.3250000000000099</v>
       </c>
       <c r="D291" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>3</v>
       </c>
       <c r="C292" t="n">
-        <v>99.181152</v>
+        <v>99.18115200000001</v>
       </c>
       <c r="D292" t="n">
         <v>0</v>
@@ -36648,7 +36648,7 @@
         <v>0</v>
       </c>
       <c r="Q292" t="n">
-        <v>96.90615199999999</v>
+        <v>96.90615200000001</v>
       </c>
       <c r="R292" t="n">
         <v>0</v>
@@ -36884,10 +36884,10 @@
         <v>0</v>
       </c>
       <c r="M294" t="n">
-        <v>45.101192</v>
+        <v>45.10119199999997</v>
       </c>
       <c r="N294" t="n">
-        <v>70.46557447999999</v>
+        <v>70.46557448</v>
       </c>
       <c r="O294" t="n">
         <v>28.78171352000001</v>
@@ -36932,19 +36932,19 @@
         <v>144.34848</v>
       </c>
       <c r="AC294" t="n">
-        <v>45.101192</v>
+        <v>45.10119199999997</v>
       </c>
       <c r="AD294" t="n">
-        <v>99.247288</v>
+        <v>99.24728800000003</v>
       </c>
       <c r="AE294" t="n">
-        <v>70.46557448</v>
+        <v>70.46557448000002</v>
       </c>
       <c r="AF294" t="n">
         <v>28.78171352</v>
       </c>
       <c r="AG294" t="n">
-        <v>70.46557447999999</v>
+        <v>70.46557448</v>
       </c>
       <c r="AH294" t="n">
         <v>28.78171352000001</v>
@@ -37350,7 +37350,7 @@
         <v>9</v>
       </c>
       <c r="C298" t="n">
-        <v>2.275000000000019</v>
+        <v>2.27500000000003</v>
       </c>
       <c r="D298" t="n">
         <v>0</v>
@@ -37377,7 +37377,7 @@
         <v>11.93155</v>
       </c>
       <c r="L298" t="n">
-        <v>89.20936088000002</v>
+        <v>89.20936088000003</v>
       </c>
       <c r="M298" t="n">
         <v>0</v>
@@ -37519,7 +37519,7 @@
         <v>0</v>
       </c>
       <c r="R299" t="n">
-        <v>69.13801799999999</v>
+        <v>69.13801799999996</v>
       </c>
       <c r="S299" t="n">
         <v>0</v>
@@ -37598,13 +37598,13 @@
         <v>11</v>
       </c>
       <c r="C300" t="n">
-        <v>1.625000000000026</v>
+        <v>1.62500000000006</v>
       </c>
       <c r="D300" t="n">
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>0.6564092800002044</v>
+        <v>0.6564092800002186</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
@@ -37746,10 +37746,10 @@
         <v>0</v>
       </c>
       <c r="K301" t="n">
-        <v>0.6564092800002512</v>
+        <v>0.6564092800002114</v>
       </c>
       <c r="L301" t="n">
-        <v>0.6564092800002601</v>
+        <v>0.6564092800002203</v>
       </c>
       <c r="M301" t="n">
         <v>0</v>
@@ -37770,16 +37770,16 @@
         <v>8.233747999999991</v>
       </c>
       <c r="S301" t="n">
-        <v>0.3162907199997488</v>
+        <v>0.3162907199997886</v>
       </c>
       <c r="T301" t="n">
-        <v>8.550038719999741</v>
+        <v>8.55003871999978</v>
       </c>
       <c r="U301" t="n">
         <v>16.46749599999999</v>
       </c>
       <c r="V301" t="n">
-        <v>1.288990719999749</v>
+        <v>1.288990719999789</v>
       </c>
       <c r="W301" t="n">
         <v>43.23456</v>
@@ -37824,16 +37824,16 @@
         <v>0</v>
       </c>
       <c r="AK301" t="n">
-        <v>17.75648671999974</v>
+        <v>17.75648671999978</v>
       </c>
       <c r="AL301" t="n">
         <v>0</v>
       </c>
       <c r="AM301" t="n">
-        <v>33.7416099516938</v>
+        <v>33.74160995169176</v>
       </c>
       <c r="AN301" t="n">
-        <v>3.564943178955941</v>
+        <v>3.564943178955724</v>
       </c>
     </row>
     <row r="302">
@@ -37846,7 +37846,7 @@
         <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>0.9750000000000312</v>
+        <v>0.97500000000006</v>
       </c>
       <c r="D302" t="n">
         <v>0</v>
@@ -37970,7 +37970,7 @@
         <v>2</v>
       </c>
       <c r="C303" t="n">
-        <v>24.34088000000006</v>
+        <v>24.34088000000008</v>
       </c>
       <c r="D303" t="n">
         <v>0</v>
@@ -38012,7 +38012,7 @@
         <v>0</v>
       </c>
       <c r="Q303" t="n">
-        <v>22.06588000000006</v>
+        <v>22.06588000000009</v>
       </c>
       <c r="R303" t="n">
         <v>0</v>
@@ -38094,7 +38094,7 @@
         <v>3</v>
       </c>
       <c r="C304" t="n">
-        <v>93.17216800000001</v>
+        <v>93.17216800000004</v>
       </c>
       <c r="D304" t="n">
         <v>0</v>
@@ -38136,7 +38136,7 @@
         <v>0</v>
       </c>
       <c r="Q304" t="n">
-        <v>90.89716800000001</v>
+        <v>90.89716800000004</v>
       </c>
       <c r="R304" t="n">
         <v>0</v>
@@ -38221,7 +38221,7 @@
         <v>174.675</v>
       </c>
       <c r="D305" t="n">
-        <v>87.39855192000002</v>
+        <v>87.39855192000005</v>
       </c>
       <c r="E305" t="n">
         <v>35.69800007999993</v>
@@ -38248,13 +38248,13 @@
         <v>0</v>
       </c>
       <c r="M305" t="n">
-        <v>81.82783199999999</v>
+        <v>81.82783199999996</v>
       </c>
       <c r="N305" t="n">
-        <v>87.39855192000002</v>
+        <v>87.39855192000003</v>
       </c>
       <c r="O305" t="n">
-        <v>35.69800007999996</v>
+        <v>35.69800007999993</v>
       </c>
       <c r="P305" t="n">
         <v>0</v>
@@ -38296,22 +38296,22 @@
         <v>204.924384</v>
       </c>
       <c r="AC305" t="n">
-        <v>81.82783199999999</v>
+        <v>81.82783199999996</v>
       </c>
       <c r="AD305" t="n">
         <v>123.096552</v>
       </c>
       <c r="AE305" t="n">
-        <v>87.39855192</v>
+        <v>87.39855192000003</v>
       </c>
       <c r="AF305" t="n">
-        <v>35.69800008</v>
+        <v>35.69800008000001</v>
       </c>
       <c r="AG305" t="n">
-        <v>87.39855192000002</v>
+        <v>87.39855192000003</v>
       </c>
       <c r="AH305" t="n">
-        <v>35.69800007999996</v>
+        <v>35.69800007999993</v>
       </c>
       <c r="AI305" t="n">
         <v>0</v>
@@ -38345,7 +38345,7 @@
         <v>174.675</v>
       </c>
       <c r="D306" t="n">
-        <v>173.86527712</v>
+        <v>173.8652771200001</v>
       </c>
       <c r="E306" t="n">
         <v>71.01539487999992</v>
@@ -38472,7 +38472,7 @@
         <v>207.39569808</v>
       </c>
       <c r="E307" t="n">
-        <v>92.2356879199999</v>
+        <v>92.23568791999992</v>
       </c>
       <c r="F307" t="n">
         <v>84.07497599999999</v>
@@ -38493,7 +38493,7 @@
         <v>3.0672</v>
       </c>
       <c r="L307" t="n">
-        <v>28.99926200000001</v>
+        <v>28.999262</v>
       </c>
       <c r="M307" t="n">
         <v>0.3250000000000028</v>
@@ -38596,7 +38596,7 @@
         <v>167.4352436800001</v>
       </c>
       <c r="E308" t="n">
-        <v>95.97053431999991</v>
+        <v>95.97053431999993</v>
       </c>
       <c r="F308" t="n">
         <v>41.42016000000001</v>
@@ -38717,10 +38717,10 @@
         <v>174.35</v>
       </c>
       <c r="D309" t="n">
-        <v>65.78665368000006</v>
+        <v>65.78665368000009</v>
       </c>
       <c r="E309" t="n">
-        <v>83.94313431999991</v>
+        <v>83.94313431999993</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
@@ -38844,7 +38844,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>72.01158431999993</v>
+        <v>72.01158431999994</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
@@ -38859,7 +38859,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="n">
-        <v>65.78665368000006</v>
+        <v>65.78665368000007</v>
       </c>
       <c r="K310" t="n">
         <v>11.93155</v>
@@ -38883,13 +38883,13 @@
         <v>171.75</v>
       </c>
       <c r="R310" t="n">
-        <v>35.04492781999994</v>
+        <v>35.04492781999993</v>
       </c>
       <c r="S310" t="n">
         <v>0</v>
       </c>
       <c r="T310" t="n">
-        <v>35.04492781999994</v>
+        <v>35.04492781999991</v>
       </c>
       <c r="U310" t="n">
         <v>100.8315815</v>
@@ -38934,7 +38934,7 @@
         <v>0</v>
       </c>
       <c r="AI310" t="n">
-        <v>35.04492781999993</v>
+        <v>35.04492781999992</v>
       </c>
       <c r="AJ310" t="n">
         <v>0</v>
@@ -38962,13 +38962,13 @@
         <v>10</v>
       </c>
       <c r="C311" t="n">
-        <v>69.51705417999993</v>
+        <v>69.51705417999992</v>
       </c>
       <c r="D311" t="n">
         <v>0</v>
       </c>
       <c r="E311" t="n">
-        <v>63.82883431999993</v>
+        <v>63.82883431999994</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
@@ -38989,7 +38989,7 @@
         <v>8.18275</v>
       </c>
       <c r="L311" t="n">
-        <v>77.32076799999999</v>
+        <v>77.320768</v>
       </c>
       <c r="M311" t="n">
         <v>0</v>
@@ -39013,7 +39013,7 @@
         <v>0</v>
       </c>
       <c r="T311" t="n">
-        <v>69.13801799999999</v>
+        <v>69.138018</v>
       </c>
       <c r="U311" t="n">
         <v>69.13801800000002</v>
@@ -39086,13 +39086,13 @@
         <v>11</v>
       </c>
       <c r="C312" t="n">
-        <v>32.56460817999993</v>
+        <v>32.56460817999991</v>
       </c>
       <c r="D312" t="n">
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>59.49428431999992</v>
+        <v>59.49428431999993</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
@@ -39128,10 +39128,10 @@
         <v>0</v>
       </c>
       <c r="Q312" t="n">
-        <v>66.91705417999992</v>
+        <v>66.91705417999991</v>
       </c>
       <c r="R312" t="n">
-        <v>36.62744599999999</v>
+        <v>36.627446</v>
       </c>
       <c r="S312" t="n">
         <v>0</v>
@@ -39182,7 +39182,7 @@
         <v>0</v>
       </c>
       <c r="AI312" t="n">
-        <v>36.62744599999999</v>
+        <v>36.627446</v>
       </c>
       <c r="AJ312" t="n">
         <v>0</v>
@@ -39191,13 +39191,13 @@
         <v>40.961996</v>
       </c>
       <c r="AL312" t="n">
-        <v>49.99999999999999</v>
+        <v>50</v>
       </c>
       <c r="AM312" t="n">
         <v>50</v>
       </c>
       <c r="AN312" t="n">
-        <v>49.99999999999999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="313">
@@ -39210,13 +39210,13 @@
         <v>12</v>
       </c>
       <c r="C313" t="n">
-        <v>24.00586017999994</v>
+        <v>24.00586017999991</v>
       </c>
       <c r="D313" t="n">
         <v>0</v>
       </c>
       <c r="E313" t="n">
-        <v>58.52158431999992</v>
+        <v>58.52158431999993</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="Q313" t="n">
-        <v>29.96460817999993</v>
+        <v>29.96460817999991</v>
       </c>
       <c r="R313" t="n">
         <v>8.233747999999991</v>
@@ -39264,7 +39264,7 @@
         <v>8.233747999999991</v>
       </c>
       <c r="U313" t="n">
-        <v>8.233748</v>
+        <v>8.233747999999999</v>
       </c>
       <c r="V313" t="n">
         <v>0.9727</v>
@@ -39312,7 +39312,7 @@
         <v>0</v>
       </c>
       <c r="AK313" t="n">
-        <v>9.206448</v>
+        <v>9.206447999999998</v>
       </c>
       <c r="AL313" t="n">
         <v>49.99999999999994</v>
@@ -39334,13 +39334,13 @@
         <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>23.68086017999994</v>
+        <v>23.68086017999991</v>
       </c>
       <c r="D314" t="n">
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>58.52158431999992</v>
+        <v>58.52158431999993</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
@@ -39376,7 +39376,7 @@
         <v>0</v>
       </c>
       <c r="Q314" t="n">
-        <v>21.40586017999994</v>
+        <v>21.40586017999992</v>
       </c>
       <c r="R314" t="n">
         <v>0</v>
@@ -39458,13 +39458,13 @@
         <v>2</v>
       </c>
       <c r="C315" t="n">
-        <v>23.35586017999994</v>
+        <v>23.35586017999992</v>
       </c>
       <c r="D315" t="n">
         <v>0</v>
       </c>
       <c r="E315" t="n">
-        <v>58.52158431999992</v>
+        <v>58.52158431999993</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
@@ -39500,7 +39500,7 @@
         <v>0</v>
       </c>
       <c r="Q315" t="n">
-        <v>21.08086017999994</v>
+        <v>21.08086017999992</v>
       </c>
       <c r="R315" t="n">
         <v>0</v>
@@ -39588,7 +39588,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>58.52158431999992</v>
+        <v>58.52158431999993</v>
       </c>
       <c r="F316" t="n">
         <v>99.20793599999996</v>
@@ -39736,13 +39736,13 @@
         <v>23.3744028921999</v>
       </c>
       <c r="M317" t="n">
-        <v>52.76120382000011</v>
+        <v>52.76120382000013</v>
       </c>
       <c r="N317" t="n">
         <v>171.0189696077999</v>
       </c>
       <c r="O317" t="n">
-        <v>46.47841568000008</v>
+        <v>46.47841568000007</v>
       </c>
       <c r="P317" t="n">
         <v>23.3744028921999</v>
@@ -39784,22 +39784,22 @@
         <v>293.6329919999999</v>
       </c>
       <c r="AC317" t="n">
-        <v>52.76120382000011</v>
+        <v>52.76120382000013</v>
       </c>
       <c r="AD317" t="n">
         <v>240.8717881799998</v>
       </c>
       <c r="AE317" t="n">
-        <v>171.0189696077999</v>
+        <v>171.0189696077998</v>
       </c>
       <c r="AF317" t="n">
-        <v>69.85281857219995</v>
+        <v>69.85281857219994</v>
       </c>
       <c r="AG317" t="n">
         <v>171.0189696077999</v>
       </c>
       <c r="AH317" t="n">
-        <v>46.47841568000008</v>
+        <v>46.47841568000007</v>
       </c>
       <c r="AI317" t="n">
         <v>0</v>
@@ -39981,7 +39981,7 @@
         <v>3.0672</v>
       </c>
       <c r="L319" t="n">
-        <v>172.182934</v>
+        <v>172.1829340000001</v>
       </c>
       <c r="M319" t="n">
         <v>0.3249999999999886</v>
@@ -40353,7 +40353,7 @@
         <v>11.93155</v>
       </c>
       <c r="L322" t="n">
-        <v>112.7631315</v>
+        <v>112.7631315000001</v>
       </c>
       <c r="M322" t="n">
         <v>0</v>
@@ -40380,7 +40380,7 @@
         <v>11.61818949999991</v>
       </c>
       <c r="U322" t="n">
-        <v>100.8315815</v>
+        <v>100.8315814999999</v>
       </c>
       <c r="V322" t="n">
         <v>11.93155</v>
@@ -40422,13 +40422,13 @@
         <v>0</v>
       </c>
       <c r="AI322" t="n">
-        <v>11.61818949999998</v>
+        <v>11.61818950000001</v>
       </c>
       <c r="AJ322" t="n">
         <v>0</v>
       </c>
       <c r="AK322" t="n">
-        <v>112.7631315</v>
+        <v>112.7631314999999</v>
       </c>
       <c r="AL322" t="n">
         <v>50.00000000000004</v>
@@ -40437,7 +40437,7 @@
         <v>50</v>
       </c>
       <c r="AN322" t="n">
-        <v>50.00000000000002</v>
+        <v>50.00000000000004</v>
       </c>
     </row>
     <row r="323">
@@ -40450,7 +40450,7 @@
         <v>10</v>
       </c>
       <c r="C323" t="n">
-        <v>92.94379249999996</v>
+        <v>92.94379249999997</v>
       </c>
       <c r="D323" t="n">
         <v>0</v>
@@ -40504,7 +40504,7 @@
         <v>69.13801799999999</v>
       </c>
       <c r="U323" t="n">
-        <v>69.138018</v>
+        <v>69.13801799999999</v>
       </c>
       <c r="V323" t="n">
         <v>8.18275</v>
@@ -40552,7 +40552,7 @@
         <v>0</v>
       </c>
       <c r="AK323" t="n">
-        <v>77.320768</v>
+        <v>77.32076799999999</v>
       </c>
       <c r="AL323" t="n">
         <v>49.99999999999999</v>
@@ -40574,7 +40574,7 @@
         <v>11</v>
       </c>
       <c r="C324" t="n">
-        <v>55.99134649999995</v>
+        <v>55.99134649999993</v>
       </c>
       <c r="D324" t="n">
         <v>0</v>
@@ -40616,7 +40616,7 @@
         <v>0</v>
       </c>
       <c r="Q324" t="n">
-        <v>90.34379249999995</v>
+        <v>90.34379249999996</v>
       </c>
       <c r="R324" t="n">
         <v>36.62744600000002</v>
@@ -40628,7 +40628,7 @@
         <v>36.62744600000002</v>
       </c>
       <c r="U324" t="n">
-        <v>36.627446</v>
+        <v>36.62744599999999</v>
       </c>
       <c r="V324" t="n">
         <v>4.33455</v>
@@ -40676,7 +40676,7 @@
         <v>0</v>
       </c>
       <c r="AK324" t="n">
-        <v>40.961996</v>
+        <v>40.96199599999999</v>
       </c>
       <c r="AL324" t="n">
         <v>50.00000000000004</v>
@@ -40698,7 +40698,7 @@
         <v>12</v>
       </c>
       <c r="C325" t="n">
-        <v>47.43259849999996</v>
+        <v>47.43259849999993</v>
       </c>
       <c r="D325" t="n">
         <v>0</v>
@@ -40725,7 +40725,7 @@
         <v>0.9727</v>
       </c>
       <c r="L325" t="n">
-        <v>9.206448</v>
+        <v>9.206447999999998</v>
       </c>
       <c r="M325" t="n">
         <v>0</v>
@@ -40740,10 +40740,10 @@
         <v>0</v>
       </c>
       <c r="Q325" t="n">
-        <v>53.39134649999995</v>
+        <v>53.39134649999993</v>
       </c>
       <c r="R325" t="n">
-        <v>8.233747999999999</v>
+        <v>8.233748</v>
       </c>
       <c r="S325" t="n">
         <v>0</v>
@@ -40752,7 +40752,7 @@
         <v>8.233747999999999</v>
       </c>
       <c r="U325" t="n">
-        <v>8.233748</v>
+        <v>8.233748000000002</v>
       </c>
       <c r="V325" t="n">
         <v>0.9727</v>
@@ -40800,7 +40800,7 @@
         <v>0</v>
       </c>
       <c r="AK325" t="n">
-        <v>9.206448</v>
+        <v>9.206448000000002</v>
       </c>
       <c r="AL325" t="n">
         <v>49.99999999999999</v>
@@ -40822,7 +40822,7 @@
         <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>47.10759849999996</v>
+        <v>47.10759849999993</v>
       </c>
       <c r="D326" t="n">
         <v>0</v>
@@ -40864,7 +40864,7 @@
         <v>0</v>
       </c>
       <c r="Q326" t="n">
-        <v>44.83259849999996</v>
+        <v>44.83259849999993</v>
       </c>
       <c r="R326" t="n">
         <v>0</v>
@@ -40946,7 +40946,7 @@
         <v>2</v>
       </c>
       <c r="C327" t="n">
-        <v>46.78259849999996</v>
+        <v>46.78259849999993</v>
       </c>
       <c r="D327" t="n">
         <v>0</v>
@@ -40988,7 +40988,7 @@
         <v>0</v>
       </c>
       <c r="Q327" t="n">
-        <v>44.50759849999996</v>
+        <v>44.50759849999993</v>
       </c>
       <c r="R327" t="n">
         <v>0</v>
@@ -41070,7 +41070,7 @@
         <v>3</v>
       </c>
       <c r="C328" t="n">
-        <v>46.45759849999996</v>
+        <v>46.45759849999993</v>
       </c>
       <c r="D328" t="n">
         <v>0</v>
@@ -41112,7 +41112,7 @@
         <v>0</v>
       </c>
       <c r="Q328" t="n">
-        <v>44.18259849999996</v>
+        <v>44.18259849999993</v>
       </c>
       <c r="R328" t="n">
         <v>0</v>
@@ -41194,7 +41194,7 @@
         <v>4</v>
       </c>
       <c r="C329" t="n">
-        <v>79.96079049999997</v>
+        <v>79.96079049999994</v>
       </c>
       <c r="D329" t="n">
         <v>0</v>
@@ -41236,7 +41236,7 @@
         <v>0</v>
       </c>
       <c r="Q329" t="n">
-        <v>77.68579049999997</v>
+        <v>77.68579049999994</v>
       </c>
       <c r="R329" t="n">
         <v>0</v>
@@ -41318,7 +41318,7 @@
         <v>5</v>
       </c>
       <c r="C330" t="n">
-        <v>79.63579049999996</v>
+        <v>79.63579049999994</v>
       </c>
       <c r="D330" t="n">
         <v>0</v>
@@ -41360,7 +41360,7 @@
         <v>0</v>
       </c>
       <c r="Q330" t="n">
-        <v>77.36079049999995</v>
+        <v>77.36079049999994</v>
       </c>
       <c r="R330" t="n">
         <v>0</v>
@@ -41442,7 +41442,7 @@
         <v>6</v>
       </c>
       <c r="C331" t="n">
-        <v>53.37872849999997</v>
+        <v>53.37872849999994</v>
       </c>
       <c r="D331" t="n">
         <v>0</v>
@@ -41484,7 +41484,7 @@
         <v>0</v>
       </c>
       <c r="Q331" t="n">
-        <v>77.03579049999996</v>
+        <v>77.03579049999993</v>
       </c>
       <c r="R331" t="n">
         <v>25.93206199999999</v>
@@ -41496,7 +41496,7 @@
         <v>25.93206199999999</v>
       </c>
       <c r="U331" t="n">
-        <v>25.932062</v>
+        <v>25.93206199999999</v>
       </c>
       <c r="V331" t="n">
         <v>3.0672</v>
@@ -41544,7 +41544,7 @@
         <v>0</v>
       </c>
       <c r="AK331" t="n">
-        <v>28.999262</v>
+        <v>28.99926199999999</v>
       </c>
       <c r="AL331" t="n">
         <v>49.99999999999999</v>
@@ -41593,7 +41593,7 @@
         <v>8.18275</v>
       </c>
       <c r="L332" t="n">
-        <v>58.96147849999997</v>
+        <v>58.96147849999994</v>
       </c>
       <c r="M332" t="n">
         <v>0</v>
@@ -41608,7 +41608,7 @@
         <v>0</v>
       </c>
       <c r="Q332" t="n">
-        <v>50.77872849999996</v>
+        <v>50.77872849999994</v>
       </c>
       <c r="R332" t="n">
         <v>69.13801799999999</v>
@@ -41620,7 +41620,7 @@
         <v>69.13801799999999</v>
       </c>
       <c r="U332" t="n">
-        <v>87.49730750000003</v>
+        <v>87.49730750000005</v>
       </c>
       <c r="V332" t="n">
         <v>8.18275</v>
@@ -41662,22 +41662,22 @@
         <v>0</v>
       </c>
       <c r="AI332" t="n">
-        <v>50.77872849999996</v>
+        <v>50.77872849999993</v>
       </c>
       <c r="AJ332" t="n">
         <v>0</v>
       </c>
       <c r="AK332" t="n">
-        <v>95.68005750000003</v>
+        <v>95.68005750000005</v>
       </c>
       <c r="AL332" t="n">
-        <v>36.72272504253735</v>
+        <v>36.72272504253733</v>
       </c>
       <c r="AM332" t="n">
         <v>50</v>
       </c>
       <c r="AN332" t="n">
-        <v>38.12784069863348</v>
+        <v>38.12784069863347</v>
       </c>
     </row>
     <row r="333">
@@ -42062,7 +42062,7 @@
         <v>11</v>
       </c>
       <c r="C336" t="n">
-        <v>0.9749999999992942</v>
+        <v>0.975000000000006</v>
       </c>
       <c r="D336" t="n">
         <v>0</v>
@@ -42074,7 +42074,7 @@
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>0.3250000000007121</v>
+        <v>0.3250000000000003</v>
       </c>
       <c r="H336" t="n">
         <v>0.3249999999999998</v>
@@ -42201,7 +42201,7 @@
         <v>0.3250000000000004</v>
       </c>
       <c r="H337" t="n">
-        <v>0.3250000000000008</v>
+        <v>0.3249999999999996</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -42310,7 +42310,7 @@
         <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0.3249999999993292</v>
+        <v>0.3250000000000259</v>
       </c>
       <c r="D338" t="n">
         <v>0</v>
@@ -42322,10 +42322,10 @@
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>0.3250000000000004</v>
+        <v>0.3249999999999992</v>
       </c>
       <c r="H338" t="n">
-        <v>0.3250000000000004</v>
+        <v>0.3249999999999992</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -42434,7 +42434,7 @@
         <v>2</v>
       </c>
       <c r="C339" t="n">
-        <v>18.01439999999932</v>
+        <v>18.01440000000002</v>
       </c>
       <c r="D339" t="n">
         <v>0</v>
@@ -42476,7 +42476,7 @@
         <v>0</v>
       </c>
       <c r="Q339" t="n">
-        <v>15.73939999999932</v>
+        <v>15.73940000000002</v>
       </c>
       <c r="R339" t="n">
         <v>0</v>
@@ -42558,7 +42558,7 @@
         <v>3</v>
       </c>
       <c r="C340" t="n">
-        <v>60.97234399999934</v>
+        <v>60.97234400000004</v>
       </c>
       <c r="D340" t="n">
         <v>0</v>
@@ -42600,7 +42600,7 @@
         <v>0</v>
       </c>
       <c r="Q340" t="n">
-        <v>58.69734399999934</v>
+        <v>58.69734400000004</v>
       </c>
       <c r="R340" t="n">
         <v>0</v>
@@ -42682,7 +42682,7 @@
         <v>4</v>
       </c>
       <c r="C341" t="n">
-        <v>73.04833599999934</v>
+        <v>73.04833600000003</v>
       </c>
       <c r="D341" t="n">
         <v>0</v>
@@ -42724,7 +42724,7 @@
         <v>0</v>
       </c>
       <c r="Q341" t="n">
-        <v>70.77333599999933</v>
+        <v>70.77333600000003</v>
       </c>
       <c r="R341" t="n">
         <v>0</v>
@@ -42806,13 +42806,13 @@
         <v>5</v>
       </c>
       <c r="C342" t="n">
-        <v>114.9729359999993</v>
+        <v>114.972936</v>
       </c>
       <c r="D342" t="n">
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>10.66939999999998</v>
+        <v>10.66939999999997</v>
       </c>
       <c r="F342" t="n">
         <v>42.24959999999999</v>
@@ -42848,7 +42848,7 @@
         <v>0</v>
       </c>
       <c r="Q342" t="n">
-        <v>112.6979359999993</v>
+        <v>112.697936</v>
       </c>
       <c r="R342" t="n">
         <v>0</v>
@@ -42933,10 +42933,10 @@
         <v>174.675</v>
       </c>
       <c r="D343" t="n">
-        <v>47.69744287999953</v>
+        <v>47.69744288000003</v>
       </c>
       <c r="E343" t="n">
-        <v>37.67622311999978</v>
+        <v>37.67622311999997</v>
       </c>
       <c r="F343" t="n">
         <v>163.730592</v>
@@ -42960,13 +42960,13 @@
         <v>28.99926200000003</v>
       </c>
       <c r="M343" t="n">
-        <v>60.02706400000068</v>
+        <v>60.02706399999997</v>
       </c>
       <c r="N343" t="n">
-        <v>73.6295048799995</v>
+        <v>73.62950488000001</v>
       </c>
       <c r="O343" t="n">
-        <v>30.0740231199998</v>
+        <v>30.07402312</v>
       </c>
       <c r="P343" t="n">
         <v>0</v>
@@ -43008,22 +43008,22 @@
         <v>163.730592</v>
       </c>
       <c r="AC343" t="n">
-        <v>60.02706400000068</v>
+        <v>60.02706399999997</v>
       </c>
       <c r="AD343" t="n">
-        <v>103.7035279999993</v>
+        <v>103.703528</v>
       </c>
       <c r="AE343" t="n">
-        <v>73.62950487999952</v>
+        <v>73.62950488000003</v>
       </c>
       <c r="AF343" t="n">
-        <v>30.0740231199998</v>
+        <v>30.07402312000001</v>
       </c>
       <c r="AG343" t="n">
-        <v>73.6295048799995</v>
+        <v>73.62950488000001</v>
       </c>
       <c r="AH343" t="n">
-        <v>30.0740231199998</v>
+        <v>30.07402312</v>
       </c>
       <c r="AI343" t="n">
         <v>0</v>
@@ -43057,7 +43057,7 @@
         <v>174.675</v>
       </c>
       <c r="D344" t="n">
-        <v>149.2023868799996</v>
+        <v>149.2023868800001</v>
       </c>
       <c r="E344" t="n">
         <v>96.81725</v>
@@ -43081,19 +43081,19 @@
         <v>8.18275</v>
       </c>
       <c r="L344" t="n">
-        <v>79.6962291199997</v>
+        <v>79.6962291199999</v>
       </c>
       <c r="M344" t="n">
-        <v>0.3250000000000118</v>
+        <v>0.3250000000000051</v>
       </c>
       <c r="N344" t="n">
         <v>170.6429620000001</v>
       </c>
       <c r="O344" t="n">
-        <v>67.32377688000022</v>
+        <v>67.32377688000003</v>
       </c>
       <c r="P344" t="n">
-        <v>2.375461119999704</v>
+        <v>2.375461119999898</v>
       </c>
       <c r="Q344" t="n">
         <v>172.4</v>
@@ -43147,7 +43147,7 @@
         <v>170.6429620000001</v>
       </c>
       <c r="AH344" t="n">
-        <v>67.32377688000022</v>
+        <v>67.32377688000003</v>
       </c>
       <c r="AI344" t="n">
         <v>0</v>
@@ -43181,7 +43181,7 @@
         <v>174.675</v>
       </c>
       <c r="D345" t="n">
-        <v>64.4190062399995</v>
+        <v>64.41900624000002</v>
       </c>
       <c r="E345" t="n">
         <v>91.67845663999998</v>
@@ -43302,7 +43302,7 @@
         <v>9</v>
       </c>
       <c r="C346" t="n">
-        <v>137.9374247399993</v>
+        <v>137.93742474</v>
       </c>
       <c r="D346" t="n">
         <v>0</v>
@@ -43323,7 +43323,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="n">
-        <v>64.41900623999931</v>
+        <v>64.41900624000002</v>
       </c>
       <c r="K346" t="n">
         <v>11.93155</v>
@@ -43347,13 +43347,13 @@
         <v>172.075</v>
       </c>
       <c r="R346" t="n">
-        <v>36.41257526000069</v>
+        <v>36.41257525999998</v>
       </c>
       <c r="S346" t="n">
         <v>0</v>
       </c>
       <c r="T346" t="n">
-        <v>36.41257526000069</v>
+        <v>36.41257525999998</v>
       </c>
       <c r="U346" t="n">
         <v>100.8315815</v>
@@ -43398,7 +43398,7 @@
         <v>0</v>
       </c>
       <c r="AI346" t="n">
-        <v>36.41257526000069</v>
+        <v>36.41257525999999</v>
       </c>
       <c r="AJ346" t="n">
         <v>0</v>
@@ -43426,7 +43426,7 @@
         <v>10</v>
       </c>
       <c r="C347" t="n">
-        <v>68.47440673999934</v>
+        <v>68.47440674000002</v>
       </c>
       <c r="D347" t="n">
         <v>0</v>
@@ -43453,7 +43453,7 @@
         <v>8.18275</v>
       </c>
       <c r="L347" t="n">
-        <v>77.32076799999999</v>
+        <v>77.32076800000002</v>
       </c>
       <c r="M347" t="n">
         <v>0</v>
@@ -43468,10 +43468,10 @@
         <v>0</v>
       </c>
       <c r="Q347" t="n">
-        <v>135.3374247399993</v>
+        <v>135.33742474</v>
       </c>
       <c r="R347" t="n">
-        <v>69.13801800000002</v>
+        <v>69.138018</v>
       </c>
       <c r="S347" t="n">
         <v>0</v>
@@ -43480,7 +43480,7 @@
         <v>69.13801800000002</v>
       </c>
       <c r="U347" t="n">
-        <v>69.13801800000002</v>
+        <v>69.13801799999999</v>
       </c>
       <c r="V347" t="n">
         <v>8.18275</v>
@@ -43522,22 +43522,22 @@
         <v>0</v>
       </c>
       <c r="AI347" t="n">
-        <v>69.138018</v>
+        <v>69.13801800000002</v>
       </c>
       <c r="AJ347" t="n">
         <v>0</v>
       </c>
       <c r="AK347" t="n">
-        <v>77.32076800000002</v>
+        <v>77.32076799999999</v>
       </c>
       <c r="AL347" t="n">
-        <v>50</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="AM347" t="n">
         <v>50</v>
       </c>
       <c r="AN347" t="n">
-        <v>50</v>
+        <v>50.00000000000001</v>
       </c>
     </row>
     <row r="348">
@@ -43550,7 +43550,7 @@
         <v>11</v>
       </c>
       <c r="C348" t="n">
-        <v>31.52196073999933</v>
+        <v>31.52196074000002</v>
       </c>
       <c r="D348" t="n">
         <v>0</v>
@@ -43592,19 +43592,19 @@
         <v>0</v>
       </c>
       <c r="Q348" t="n">
-        <v>65.87440673999933</v>
+        <v>65.87440674000001</v>
       </c>
       <c r="R348" t="n">
+        <v>36.62744599999999</v>
+      </c>
+      <c r="S348" t="n">
+        <v>0</v>
+      </c>
+      <c r="T348" t="n">
+        <v>36.62744599999999</v>
+      </c>
+      <c r="U348" t="n">
         <v>36.62744599999998</v>
-      </c>
-      <c r="S348" t="n">
-        <v>0</v>
-      </c>
-      <c r="T348" t="n">
-        <v>36.62744599999998</v>
-      </c>
-      <c r="U348" t="n">
-        <v>36.62744599999999</v>
       </c>
       <c r="V348" t="n">
         <v>4.33455</v>
@@ -43646,22 +43646,22 @@
         <v>0</v>
       </c>
       <c r="AI348" t="n">
-        <v>36.62744599999999</v>
+        <v>36.627446</v>
       </c>
       <c r="AJ348" t="n">
         <v>0</v>
       </c>
       <c r="AK348" t="n">
-        <v>40.96199599999999</v>
+        <v>40.96199599999998</v>
       </c>
       <c r="AL348" t="n">
-        <v>49.99999999999999</v>
+        <v>50</v>
       </c>
       <c r="AM348" t="n">
         <v>50</v>
       </c>
       <c r="AN348" t="n">
-        <v>49.99999999999999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="349">
@@ -43674,7 +43674,7 @@
         <v>12</v>
       </c>
       <c r="C349" t="n">
-        <v>22.96321273999935</v>
+        <v>22.96321274000004</v>
       </c>
       <c r="D349" t="n">
         <v>0</v>
@@ -43716,7 +43716,7 @@
         <v>0</v>
       </c>
       <c r="Q349" t="n">
-        <v>28.92196073999934</v>
+        <v>28.92196074000002</v>
       </c>
       <c r="R349" t="n">
         <v>8.233747999999995</v>
@@ -43728,7 +43728,7 @@
         <v>8.233747999999995</v>
       </c>
       <c r="U349" t="n">
-        <v>8.233748</v>
+        <v>8.233748000000002</v>
       </c>
       <c r="V349" t="n">
         <v>0.9727</v>
@@ -43776,7 +43776,7 @@
         <v>0</v>
       </c>
       <c r="AK349" t="n">
-        <v>9.206448</v>
+        <v>9.206448000000002</v>
       </c>
       <c r="AL349" t="n">
         <v>49.99999999999996</v>
@@ -43798,7 +43798,7 @@
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>22.63821273999935</v>
+        <v>22.63821274000004</v>
       </c>
       <c r="D350" t="n">
         <v>0</v>
@@ -43840,7 +43840,7 @@
         <v>0</v>
       </c>
       <c r="Q350" t="n">
-        <v>20.36321273999935</v>
+        <v>20.36321274000004</v>
       </c>
       <c r="R350" t="n">
         <v>0</v>
@@ -43922,7 +43922,7 @@
         <v>2</v>
       </c>
       <c r="C351" t="n">
-        <v>38.20217273999934</v>
+        <v>38.20217274000004</v>
       </c>
       <c r="D351" t="n">
         <v>0</v>
@@ -43964,7 +43964,7 @@
         <v>0</v>
       </c>
       <c r="Q351" t="n">
-        <v>35.92717273999934</v>
+        <v>35.92717274000004</v>
       </c>
       <c r="R351" t="n">
         <v>0</v>
@@ -44046,7 +44046,7 @@
         <v>3</v>
       </c>
       <c r="C352" t="n">
-        <v>90.82914073999936</v>
+        <v>90.82914074000007</v>
       </c>
       <c r="D352" t="n">
         <v>0</v>
@@ -44088,7 +44088,7 @@
         <v>0</v>
       </c>
       <c r="Q352" t="n">
-        <v>88.55414073999935</v>
+        <v>88.55414074000007</v>
       </c>
       <c r="R352" t="n">
         <v>0</v>
@@ -44170,7 +44170,7 @@
         <v>4</v>
       </c>
       <c r="C353" t="n">
-        <v>90.50414073999936</v>
+        <v>90.50414074000005</v>
       </c>
       <c r="D353" t="n">
         <v>0</v>
@@ -44212,7 +44212,7 @@
         <v>0</v>
       </c>
       <c r="Q353" t="n">
-        <v>88.22914073999935</v>
+        <v>88.22914074000005</v>
       </c>
       <c r="R353" t="n">
         <v>0</v>
@@ -44297,10 +44297,10 @@
         <v>174.675</v>
       </c>
       <c r="D354" t="n">
-        <v>37.67372232539952</v>
+        <v>37.67372232539998</v>
       </c>
       <c r="E354" t="n">
-        <v>81.64476505459982</v>
+        <v>81.64476505460001</v>
       </c>
       <c r="F354" t="n">
         <v>137.55744</v>
@@ -44324,13 +44324,13 @@
         <v>0</v>
       </c>
       <c r="M354" t="n">
-        <v>84.49585926000064</v>
+        <v>84.49585925999995</v>
       </c>
       <c r="N354" t="n">
-        <v>37.67372232539952</v>
+        <v>37.67372232540001</v>
       </c>
       <c r="O354" t="n">
-        <v>15.38785841459983</v>
+        <v>15.38785841460003</v>
       </c>
       <c r="P354" t="n">
         <v>0</v>
@@ -44372,22 +44372,22 @@
         <v>137.55744</v>
       </c>
       <c r="AC354" t="n">
-        <v>84.49585926000064</v>
+        <v>84.49585925999995</v>
       </c>
       <c r="AD354" t="n">
-        <v>53.06158073999934</v>
+        <v>53.06158074000004</v>
       </c>
       <c r="AE354" t="n">
-        <v>37.67372232539953</v>
+        <v>37.67372232540003</v>
       </c>
       <c r="AF354" t="n">
-        <v>15.38785841459981</v>
+        <v>15.38785841460001</v>
       </c>
       <c r="AG354" t="n">
-        <v>37.67372232539952</v>
+        <v>37.67372232540001</v>
       </c>
       <c r="AH354" t="n">
-        <v>15.38785841459983</v>
+        <v>15.38785841460003</v>
       </c>
       <c r="AI354" t="n">
         <v>0</v>
@@ -44421,7 +44421,7 @@
         <v>174.675</v>
       </c>
       <c r="D355" t="n">
-        <v>92.86409624539952</v>
+        <v>92.86409624540001</v>
       </c>
       <c r="E355" t="n">
         <v>101.9328</v>
@@ -44445,7 +44445,7 @@
         <v>3.0672</v>
       </c>
       <c r="L355" t="n">
-        <v>38.77854313459981</v>
+        <v>38.77854313460001</v>
       </c>
       <c r="M355" t="n">
         <v>0.3250000000000028</v>
@@ -44454,10 +44454,10 @@
         <v>81.12243592</v>
       </c>
       <c r="O355" t="n">
-        <v>23.35523494540019</v>
+        <v>23.35523494539999</v>
       </c>
       <c r="P355" t="n">
-        <v>9.779281134599813</v>
+        <v>9.779281134600012</v>
       </c>
       <c r="Q355" t="n">
         <v>172.4</v>
@@ -44511,7 +44511,7 @@
         <v>81.12243592</v>
       </c>
       <c r="AH355" t="n">
-        <v>23.35523494540019</v>
+        <v>23.35523494539999</v>
       </c>
       <c r="AI355" t="n">
         <v>0</v>
@@ -44545,7 +44545,7 @@
         <v>174.675</v>
       </c>
       <c r="D356" t="n">
-        <v>122.0076578453995</v>
+        <v>122.0076578454</v>
       </c>
       <c r="E356" t="n">
         <v>96.81725000000006</v>
@@ -44669,7 +44669,7 @@
         <v>174.35</v>
       </c>
       <c r="D357" t="n">
-        <v>20.35906784539952</v>
+        <v>20.35906784540003</v>
       </c>
       <c r="E357" t="n">
         <v>84.78985000000006</v>
@@ -44790,7 +44790,7 @@
         <v>9</v>
       </c>
       <c r="C358" t="n">
-        <v>93.5524863453994</v>
+        <v>93.55248634539991</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -44811,7 +44811,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="n">
-        <v>20.35906784539952</v>
+        <v>20.35906784540002</v>
       </c>
       <c r="K358" t="n">
         <v>11.93155</v>
@@ -44835,13 +44835,13 @@
         <v>171.75</v>
       </c>
       <c r="R358" t="n">
-        <v>80.47251365460048</v>
+        <v>80.47251365459998</v>
       </c>
       <c r="S358" t="n">
         <v>0</v>
       </c>
       <c r="T358" t="n">
-        <v>80.47251365460048</v>
+        <v>80.47251365459998</v>
       </c>
       <c r="U358" t="n">
         <v>100.8315815</v>
@@ -44886,7 +44886,7 @@
         <v>0</v>
       </c>
       <c r="AI358" t="n">
-        <v>80.47251365460048</v>
+        <v>80.47251365459996</v>
       </c>
       <c r="AJ358" t="n">
         <v>0</v>
@@ -44895,13 +44895,13 @@
         <v>112.7631315</v>
       </c>
       <c r="AL358" t="n">
-        <v>50</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="AM358" t="n">
         <v>50</v>
       </c>
       <c r="AN358" t="n">
-        <v>50</v>
+        <v>49.99999999999999</v>
       </c>
     </row>
     <row r="359">
@@ -44914,7 +44914,7 @@
         <v>10</v>
       </c>
       <c r="C359" t="n">
-        <v>24.08946834539941</v>
+        <v>24.08946834539991</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -44941,7 +44941,7 @@
         <v>8.18275</v>
       </c>
       <c r="L359" t="n">
-        <v>77.320768</v>
+        <v>77.32076799999999</v>
       </c>
       <c r="M359" t="n">
         <v>0</v>
@@ -44956,19 +44956,19 @@
         <v>0</v>
       </c>
       <c r="Q359" t="n">
-        <v>90.95248634539939</v>
+        <v>90.9524863453999</v>
       </c>
       <c r="R359" t="n">
-        <v>69.13801799999999</v>
+        <v>69.138018</v>
       </c>
       <c r="S359" t="n">
         <v>0</v>
       </c>
       <c r="T359" t="n">
-        <v>69.13801799999995</v>
+        <v>69.13801799999996</v>
       </c>
       <c r="U359" t="n">
-        <v>69.138018</v>
+        <v>69.13801800000002</v>
       </c>
       <c r="V359" t="n">
         <v>8.18275</v>
@@ -45016,7 +45016,7 @@
         <v>0</v>
       </c>
       <c r="AK359" t="n">
-        <v>77.320768</v>
+        <v>77.32076800000002</v>
       </c>
       <c r="AL359" t="n">
         <v>49.99999999999999</v>
@@ -45038,7 +45038,7 @@
         <v>11</v>
       </c>
       <c r="C360" t="n">
-        <v>2.275000000000011</v>
+        <v>2.275000000000005</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -45065,7 +45065,7 @@
         <v>4.33455</v>
       </c>
       <c r="L360" t="n">
-        <v>25.82401834539942</v>
+        <v>25.82401834539992</v>
       </c>
       <c r="M360" t="n">
         <v>0</v>
@@ -45080,7 +45080,7 @@
         <v>0</v>
       </c>
       <c r="Q360" t="n">
-        <v>21.48946834539942</v>
+        <v>21.48946834539991</v>
       </c>
       <c r="R360" t="n">
         <v>36.62744599999998</v>
@@ -45089,10 +45089,10 @@
         <v>0</v>
       </c>
       <c r="T360" t="n">
-        <v>36.62744599999999</v>
+        <v>36.62744599999998</v>
       </c>
       <c r="U360" t="n">
-        <v>51.76542365460058</v>
+        <v>51.76542365460008</v>
       </c>
       <c r="V360" t="n">
         <v>4.33455</v>
@@ -45134,22 +45134,22 @@
         <v>0</v>
       </c>
       <c r="AI360" t="n">
-        <v>21.48946834539941</v>
+        <v>21.48946834539991</v>
       </c>
       <c r="AJ360" t="n">
         <v>0</v>
       </c>
       <c r="AK360" t="n">
-        <v>56.09997365460058</v>
+        <v>56.09997365460008</v>
       </c>
       <c r="AL360" t="n">
-        <v>29.3351989999513</v>
+        <v>29.33519899995198</v>
       </c>
       <c r="AM360" t="n">
         <v>50</v>
       </c>
       <c r="AN360" t="n">
-        <v>31.52192381616292</v>
+        <v>31.52192381616353</v>
       </c>
     </row>
     <row r="361">
@@ -45189,7 +45189,7 @@
         <v>0.9727</v>
       </c>
       <c r="L361" t="n">
-        <v>0.9727</v>
+        <v>0.9726999999999996</v>
       </c>
       <c r="M361" t="n">
         <v>0</v>
@@ -45344,13 +45344,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>723.5594709999998</v>
+        <v>723.5594709999999</v>
       </c>
       <c r="C2" t="n">
         <v>649.4390209999999</v>
       </c>
       <c r="D2" t="n">
-        <v>74.12044999999975</v>
+        <v>74.12044999999976</v>
       </c>
       <c r="E2" t="n">
         <v>196.9372559999999</v>
@@ -45378,7 +45378,7 @@
         <v>601.0259470000005</v>
       </c>
       <c r="D3" t="n">
-        <v>62.18889999999955</v>
+        <v>62.1888999999996</v>
       </c>
       <c r="E3" t="n">
         <v>257.2818799999998</v>
@@ -45512,16 +45512,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>460.2483634999999</v>
+        <v>460.2483635</v>
       </c>
       <c r="C8" t="n">
-        <v>411.5494634999999</v>
+        <v>411.5494635</v>
       </c>
       <c r="D8" t="n">
         <v>48.6989</v>
       </c>
       <c r="E8" t="n">
-        <v>995.9967187200003</v>
+        <v>995.9967187200002</v>
       </c>
       <c r="F8" t="n">
         <v>920.496727</v>
@@ -45571,13 +45571,13 @@
         <v>460.2483634999999</v>
       </c>
       <c r="C10" t="n">
-        <v>411.5494634999999</v>
+        <v>411.5494634999998</v>
       </c>
       <c r="D10" t="n">
         <v>48.6989</v>
       </c>
       <c r="E10" t="n">
-        <v>1667.14772766</v>
+        <v>1667.147727660001</v>
       </c>
       <c r="F10" t="n">
         <v>920.496727</v>
@@ -45599,7 +45599,7 @@
         <v>766.27696666</v>
       </c>
       <c r="C11" t="n">
-        <v>717.5780666599999</v>
+        <v>717.5780666600001</v>
       </c>
       <c r="D11" t="n">
         <v>48.6989</v>
@@ -45624,7 +45624,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>487.9885918800004</v>
+        <v>487.9885918800005</v>
       </c>
       <c r="C12" t="n">
         <v>439.2896918800005</v>
@@ -45652,10 +45652,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>460.2483635</v>
+        <v>460.2483634999999</v>
       </c>
       <c r="C13" t="n">
-        <v>411.5494635</v>
+        <v>411.5494634999999</v>
       </c>
       <c r="D13" t="n">
         <v>48.6989</v>
@@ -45736,7 +45736,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>460.2483634999999</v>
+        <v>460.2483635</v>
       </c>
       <c r="C16" t="n">
         <v>411.5494634999999</v>
@@ -45745,7 +45745,7 @@
         <v>48.6989</v>
       </c>
       <c r="E16" t="n">
-        <v>629.0248460000001</v>
+        <v>629.024846</v>
       </c>
       <c r="F16" t="n">
         <v>920.496727</v>
@@ -45848,10 +45848,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>709.7217471399999</v>
+        <v>709.7217471399998</v>
       </c>
       <c r="C20" t="n">
-        <v>661.0228471400001</v>
+        <v>661.02284714</v>
       </c>
       <c r="D20" t="n">
         <v>48.6989</v>
@@ -45904,22 +45904,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>460.2483634999999</v>
+        <v>460.2483635</v>
       </c>
       <c r="C22" t="n">
-        <v>411.5494634999998</v>
+        <v>411.5494634999999</v>
       </c>
       <c r="D22" t="n">
         <v>48.6989</v>
       </c>
       <c r="E22" t="n">
-        <v>564.2422080000002</v>
+        <v>564.2422080000001</v>
       </c>
       <c r="F22" t="n">
         <v>920.496727</v>
       </c>
       <c r="G22" t="n">
-        <v>70.83333333333334</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>8</v>
@@ -45941,7 +45941,7 @@
         <v>48.6989</v>
       </c>
       <c r="E23" t="n">
-        <v>181.2529724999994</v>
+        <v>181.2529724999995</v>
       </c>
       <c r="F23" t="n">
         <v>920.496727</v>
@@ -45969,7 +45969,7 @@
         <v>48.6989</v>
       </c>
       <c r="E24" t="n">
-        <v>434.6347118399998</v>
+        <v>434.6347118399997</v>
       </c>
       <c r="F24" t="n">
         <v>920.496727</v>
@@ -45988,10 +45988,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>739.6865389999998</v>
+        <v>739.6865389999999</v>
       </c>
       <c r="C25" t="n">
-        <v>690.9876389999997</v>
+        <v>690.9876389999999</v>
       </c>
       <c r="D25" t="n">
         <v>48.6989</v>
@@ -46022,7 +46022,7 @@
         <v>549.10244612</v>
       </c>
       <c r="D26" t="n">
-        <v>49.01519071999975</v>
+        <v>49.01519071999979</v>
       </c>
       <c r="E26" t="n">
         <v>322.3790901600003</v>
@@ -46031,7 +46031,7 @@
         <v>920.496727</v>
       </c>
       <c r="G26" t="n">
-        <v>58.64195001901314</v>
+        <v>58.64195001901313</v>
       </c>
       <c r="H26" t="n">
         <v>10</v>
@@ -46131,13 +46131,13 @@
         <v>460.2483635</v>
       </c>
       <c r="C30" t="n">
-        <v>411.5494635</v>
+        <v>411.5494634999999</v>
       </c>
       <c r="D30" t="n">
         <v>48.6989</v>
       </c>
       <c r="E30" t="n">
-        <v>462.6238246199997</v>
+        <v>462.6238246199999</v>
       </c>
       <c r="F30" t="n">
         <v>920.496727</v>
@@ -46156,22 +46156,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>483.6200891546006</v>
+        <v>483.6200891546001</v>
       </c>
       <c r="C31" t="n">
-        <v>434.9211891546005</v>
+        <v>434.9211891546001</v>
       </c>
       <c r="D31" t="n">
         <v>48.6989</v>
       </c>
       <c r="E31" t="n">
-        <v>483.731899379999</v>
+        <v>483.7318993799997</v>
       </c>
       <c r="F31" t="n">
         <v>920.496727</v>
       </c>
       <c r="G31" t="n">
-        <v>65.56705286404943</v>
+        <v>65.56705286404947</v>
       </c>
       <c r="H31" t="n">
         <v>8</v>
